--- a/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par journée/2023_2024/Skill Corner/physical_top5.xlsx
+++ b/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par journée/2023_2024/Skill Corner/physical_top5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,202 +441,197 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_all</t>
+          <t>total_distance_per_Match</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_all</t>
+          <t>total_metersperminute_per_Match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_all</t>
+          <t>running_distance_per_Match</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_all</t>
+          <t>hsr_distance_per_Match</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_all</t>
+          <t>hsr_count_per_Match</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_all</t>
+          <t>sprint_distance_per_Match</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_all</t>
+          <t>sprint_count_per_Match</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_all</t>
+          <t>hi_distance_per_Match</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_all</t>
+          <t>hi_count_per_Match</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_all</t>
+          <t>medaccel_count_per_Match</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_all</t>
+          <t>highaccel_count_per_Match</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_all</t>
+          <t>meddecel_count_per_Match</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_all</t>
+          <t>highdecel_count_per_Match</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>psv99</t>
+          <t>total_distance_per30tip</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>total_metersperminute_per30tip</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>running_distance_per30tip</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>hsr_distance_per30tip</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hsr_count_per30tip</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>sprint_distance_per30tip</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>sprint_count_per30tip</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>hi_distance_per30tip</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>hi_count_per30tip</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>medaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>highaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>meddecel_count_per30tip</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>highdecel_count_per30tip</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>total_distance_per30otip</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>total_metersperminute_per30otip</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>running_distance_per30otip</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>hsr_distance_per30otip</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>hsr_count_per30otip</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>sprint_distance_per30otip</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>sprint_count_per30otip</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>hi_distance_per30otip</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>hi_count_per30otip</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>medaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>highaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>meddecel_count_per30otip</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>highdecel_count_full_otip</t>
+          <t>highdecel_count_per30otip</t>
         </is>
       </c>
     </row>
@@ -684,85 +679,82 @@
         <v>156.4442403371688</v>
       </c>
       <c r="O2" t="n">
-        <v>373.4032725324379</v>
+        <v>56596.58224086998</v>
       </c>
       <c r="P2" t="n">
-        <v>34475.77353331994</v>
+        <v>1886.547589800686</v>
       </c>
       <c r="Q2" t="n">
-        <v>1886.547589800686</v>
+        <v>10253.24882355661</v>
       </c>
       <c r="R2" t="n">
-        <v>5782.987677069694</v>
+        <v>4196.295863754312</v>
       </c>
       <c r="S2" t="n">
-        <v>2299.614230351403</v>
+        <v>385.3100684693572</v>
       </c>
       <c r="T2" t="n">
-        <v>219.0301177226079</v>
+        <v>1475.016219546641</v>
       </c>
       <c r="U2" t="n">
-        <v>906.8255065162936</v>
+        <v>71.78262963959783</v>
       </c>
       <c r="V2" t="n">
-        <v>43.55413172220904</v>
+        <v>5671.328314365539</v>
       </c>
       <c r="W2" t="n">
-        <v>3206.439736867696</v>
+        <v>457.0947140935504</v>
       </c>
       <c r="X2" t="n">
-        <v>262.5842494448169</v>
+        <v>635.4701457522975</v>
       </c>
       <c r="Y2" t="n">
-        <v>372.7531086583934</v>
+        <v>39.18936462681864</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.88439712139586</v>
+        <v>400.4570881600293</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.5825330343928</v>
+        <v>61.19888853835907</v>
       </c>
       <c r="AB2" t="n">
-        <v>34.63456132101662</v>
+        <v>57946.28078940111</v>
       </c>
       <c r="AC2" t="n">
-        <v>36122.98174169155</v>
+        <v>1931.544751129828</v>
       </c>
       <c r="AD2" t="n">
-        <v>1931.544751129828</v>
+        <v>10987.93511150422</v>
       </c>
       <c r="AE2" t="n">
-        <v>6577.622211204015</v>
+        <v>4254.641601023499</v>
       </c>
       <c r="AF2" t="n">
-        <v>2544.646768847655</v>
+        <v>396.2010069228687</v>
       </c>
       <c r="AG2" t="n">
-        <v>239.1962978451791</v>
+        <v>1122.020195403742</v>
       </c>
       <c r="AH2" t="n">
-        <v>634.1134961562171</v>
+        <v>52.34718008938891</v>
       </c>
       <c r="AI2" t="n">
-        <v>33.93896706194927</v>
+        <v>5376.656374320856</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3178.760265003873</v>
+        <v>448.5567213758965</v>
       </c>
       <c r="AK2" t="n">
-        <v>273.1352649071284</v>
+        <v>684.1070957747127</v>
       </c>
       <c r="AL2" t="n">
-        <v>432.4675479886652</v>
+        <v>33.72990955992373</v>
       </c>
       <c r="AM2" t="n">
-        <v>21.37890672901796</v>
+        <v>489.5789685558519</v>
       </c>
       <c r="AN2" t="n">
-        <v>309.8106694343911</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>52.22808087663655</v>
+        <v>82.98795483214776</v>
       </c>
     </row>
     <row r="3">
@@ -809,85 +801,82 @@
         <v>146.2328407581838</v>
       </c>
       <c r="O3" t="n">
-        <v>366.3165901987185</v>
+        <v>53659.6513135235</v>
       </c>
       <c r="P3" t="n">
-        <v>46696.80501502039</v>
+        <v>1788.655377590809</v>
       </c>
       <c r="Q3" t="n">
-        <v>1788.655377590809</v>
+        <v>8346.020511890138</v>
       </c>
       <c r="R3" t="n">
-        <v>6940.280497081571</v>
+        <v>3281.312263666152</v>
       </c>
       <c r="S3" t="n">
-        <v>2675.173088930597</v>
+        <v>290.4646031064835</v>
       </c>
       <c r="T3" t="n">
-        <v>244.6644957259605</v>
+        <v>1054.407447382623</v>
       </c>
       <c r="U3" t="n">
-        <v>958.1412118343283</v>
+        <v>51.56118295394057</v>
       </c>
       <c r="V3" t="n">
-        <v>46.97474255381459</v>
+        <v>4335.742576837856</v>
       </c>
       <c r="W3" t="n">
-        <v>3633.314300764926</v>
+        <v>342.0166817392329</v>
       </c>
       <c r="X3" t="n">
-        <v>291.6392382797751</v>
+        <v>522.6393193216793</v>
       </c>
       <c r="Y3" t="n">
-        <v>453.3811971731111</v>
+        <v>35.61435473146581</v>
       </c>
       <c r="Z3" t="n">
-        <v>28.24439291325385</v>
+        <v>389.7495086834559</v>
       </c>
       <c r="AA3" t="n">
-        <v>346.8746373835253</v>
+        <v>57.2261336196814</v>
       </c>
       <c r="AB3" t="n">
-        <v>46.93274811255247</v>
+        <v>51755.61188571618</v>
       </c>
       <c r="AC3" t="n">
-        <v>23415.1209458327</v>
+        <v>1725.183816852664</v>
       </c>
       <c r="AD3" t="n">
-        <v>1725.183816852664</v>
+        <v>9267.449760465919</v>
       </c>
       <c r="AE3" t="n">
-        <v>4106.668551504893</v>
+        <v>4281.366074569603</v>
       </c>
       <c r="AF3" t="n">
-        <v>1821.422598534984</v>
+        <v>408.4943104899536</v>
       </c>
       <c r="AG3" t="n">
-        <v>172.3414111237381</v>
+        <v>1577.426225160196</v>
       </c>
       <c r="AH3" t="n">
-        <v>690.4973762683519</v>
+        <v>79.02544531605422</v>
       </c>
       <c r="AI3" t="n">
-        <v>33.63699489251817</v>
+        <v>5858.783195408609</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2511.919974803335</v>
+        <v>487.5334472831623</v>
       </c>
       <c r="AK3" t="n">
-        <v>205.9784060162563</v>
+        <v>577.6474935028339</v>
       </c>
       <c r="AL3" t="n">
-        <v>257.2075722608297</v>
+        <v>44.80279465639154</v>
       </c>
       <c r="AM3" t="n">
-        <v>20.05750291474576</v>
+        <v>370.6284597065178</v>
       </c>
       <c r="AN3" t="n">
-        <v>168.097209764076</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>37.36271225150987</v>
+        <v>87.8977076192283</v>
       </c>
     </row>
     <row r="4">
@@ -934,85 +923,82 @@
         <v>140.8632224502152</v>
       </c>
       <c r="O4" t="n">
-        <v>365.2039195172217</v>
+        <v>50414.5155939039</v>
       </c>
       <c r="P4" t="n">
-        <v>33659.37089204403</v>
+        <v>1680.488419051017</v>
       </c>
       <c r="Q4" t="n">
-        <v>1680.488419051017</v>
+        <v>7349.403181379229</v>
       </c>
       <c r="R4" t="n">
-        <v>4659.242777889203</v>
+        <v>2877.83676774567</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.017180103463</v>
+        <v>291.3980974058521</v>
       </c>
       <c r="T4" t="n">
-        <v>172.9207525913811</v>
+        <v>1020.045765458283</v>
       </c>
       <c r="U4" t="n">
-        <v>520.4021181991247</v>
+        <v>54.49113004171878</v>
       </c>
       <c r="V4" t="n">
-        <v>29.62419777871492</v>
+        <v>3897.885312592015</v>
       </c>
       <c r="W4" t="n">
-        <v>2217.419298302587</v>
+        <v>345.8872209315326</v>
       </c>
       <c r="X4" t="n">
-        <v>202.544950370096</v>
+        <v>524.1945350520036</v>
       </c>
       <c r="Y4" t="n">
-        <v>350.7313204985633</v>
+        <v>25.35142539204943</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.43045095226221</v>
+        <v>362.8416394391008</v>
       </c>
       <c r="AA4" t="n">
-        <v>245.2959012703713</v>
+        <v>57.36310035251575</v>
       </c>
       <c r="AB4" t="n">
-        <v>34.58180131917273</v>
+        <v>54147.36579506163</v>
       </c>
       <c r="AC4" t="n">
-        <v>33789.96328658324</v>
+        <v>1804.909743174837</v>
       </c>
       <c r="AD4" t="n">
-        <v>1804.909743174837</v>
+        <v>9872.996566883994</v>
       </c>
       <c r="AE4" t="n">
-        <v>5850.136756632869</v>
+        <v>3469.136216262143</v>
       </c>
       <c r="AF4" t="n">
-        <v>2069.614840126777</v>
+        <v>326.0093863337919</v>
       </c>
       <c r="AG4" t="n">
-        <v>198.4760442550709</v>
+        <v>931.9141076509092</v>
       </c>
       <c r="AH4" t="n">
-        <v>550.3176228908862</v>
+        <v>47.90227204293173</v>
       </c>
       <c r="AI4" t="n">
-        <v>28.57363459789036</v>
+        <v>4401.050332457036</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2619.932463017663</v>
+        <v>373.9138649327263</v>
       </c>
       <c r="AK4" t="n">
-        <v>227.0496788529613</v>
+        <v>583.2180359692923</v>
       </c>
       <c r="AL4" t="n">
-        <v>373.3982602268997</v>
+        <v>24.56779321424223</v>
       </c>
       <c r="AM4" t="n">
-        <v>15.2547178262895</v>
+        <v>438.3473074433757</v>
       </c>
       <c r="AN4" t="n">
-        <v>276.8032889983299</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>44.86534125393464</v>
+        <v>83.6131298898033</v>
       </c>
     </row>
     <row r="5">
@@ -1059,85 +1045,82 @@
         <v>163.2931866127566</v>
       </c>
       <c r="O5" t="n">
-        <v>377.2029371773273</v>
+        <v>54575.6449037994</v>
       </c>
       <c r="P5" t="n">
-        <v>41908.47892289462</v>
+        <v>1819.188012094927</v>
       </c>
       <c r="Q5" t="n">
-        <v>1819.188012094927</v>
+        <v>8829.785939482445</v>
       </c>
       <c r="R5" t="n">
-        <v>6477.729895800281</v>
+        <v>3722.818141383955</v>
       </c>
       <c r="S5" t="n">
-        <v>2510.306967800436</v>
+        <v>350.8446054465536</v>
       </c>
       <c r="T5" t="n">
-        <v>239.4604898556713</v>
+        <v>1391.946692230495</v>
       </c>
       <c r="U5" t="n">
-        <v>857.8497142286417</v>
+        <v>66.36176482240994</v>
       </c>
       <c r="V5" t="n">
-        <v>45.39872491950877</v>
+        <v>5114.77383978879</v>
       </c>
       <c r="W5" t="n">
-        <v>3368.156682029078</v>
+        <v>417.2062966296527</v>
       </c>
       <c r="X5" t="n">
-        <v>284.85921477518</v>
+        <v>576.6876748540814</v>
       </c>
       <c r="Y5" t="n">
-        <v>425.9003722460504</v>
+        <v>38.14340987965868</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.05711612745011</v>
+        <v>405.5078042512836</v>
       </c>
       <c r="AA5" t="n">
-        <v>309.1198201851025</v>
+        <v>64.53672885065156</v>
       </c>
       <c r="AB5" t="n">
-        <v>44.7653396286067</v>
+        <v>60393.46205409129</v>
       </c>
       <c r="AC5" t="n">
-        <v>32609.38794527624</v>
+        <v>2013.118196838971</v>
       </c>
       <c r="AD5" t="n">
-        <v>2013.118196838971</v>
+        <v>11570.3607145439</v>
       </c>
       <c r="AE5" t="n">
-        <v>6059.592952034155</v>
+        <v>5132.146970115689</v>
       </c>
       <c r="AF5" t="n">
-        <v>2571.291490250554</v>
+        <v>480.6423851330335</v>
       </c>
       <c r="AG5" t="n">
-        <v>237.3247081632433</v>
+        <v>1571.974607216981</v>
       </c>
       <c r="AH5" t="n">
-        <v>752.5848275636995</v>
+        <v>78.4494269832671</v>
       </c>
       <c r="AI5" t="n">
-        <v>39.62652857479783</v>
+        <v>6704.12894868319</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3323.876317814253</v>
+        <v>559.10252398797</v>
       </c>
       <c r="AK5" t="n">
-        <v>276.9512367380411</v>
+        <v>671.9212714537505</v>
       </c>
       <c r="AL5" t="n">
-        <v>365.2255492115477</v>
+        <v>47.25473612710991</v>
       </c>
       <c r="AM5" t="n">
-        <v>20.88311550897389</v>
+        <v>456.00623691156</v>
       </c>
       <c r="AN5" t="n">
-        <v>253.1404065647812</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>51.07807668814347</v>
+        <v>102.6926716537451</v>
       </c>
     </row>
     <row r="6">
@@ -1184,85 +1167,82 @@
         <v>158.1177451061868</v>
       </c>
       <c r="O6" t="n">
-        <v>359.8061146597217</v>
+        <v>53981.94631614422</v>
       </c>
       <c r="P6" t="n">
-        <v>34844.23753153768</v>
+        <v>1799.39373088713</v>
       </c>
       <c r="Q6" t="n">
-        <v>1799.39373088713</v>
+        <v>8912.855845598526</v>
       </c>
       <c r="R6" t="n">
-        <v>5437.163404354897</v>
+        <v>3617.887632964767</v>
       </c>
       <c r="S6" t="n">
-        <v>2127.580303774905</v>
+        <v>327.6894635394386</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8102091830273</v>
+        <v>1128.558060881636</v>
       </c>
       <c r="U6" t="n">
-        <v>675.234318903429</v>
+        <v>56.82044523912488</v>
       </c>
       <c r="V6" t="n">
-        <v>36.08026499295504</v>
+        <v>4746.436673628969</v>
       </c>
       <c r="W6" t="n">
-        <v>2802.814622678334</v>
+        <v>384.5064996504555</v>
       </c>
       <c r="X6" t="n">
-        <v>235.8904741759823</v>
+        <v>545.4066941452232</v>
       </c>
       <c r="Y6" t="n">
-        <v>342.7973569673871</v>
+        <v>34.35002516346054</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.37298670285532</v>
+        <v>367.142815922293</v>
       </c>
       <c r="AA6" t="n">
-        <v>239.579279899112</v>
+        <v>63.85885573399709</v>
       </c>
       <c r="AB6" t="n">
-        <v>37.89366149395073</v>
+        <v>57333.10452870735</v>
       </c>
       <c r="AC6" t="n">
-        <v>34536.6781348041</v>
+        <v>1911.097473704051</v>
       </c>
       <c r="AD6" t="n">
-        <v>1911.097473704051</v>
+        <v>10841.15215102119</v>
       </c>
       <c r="AE6" t="n">
-        <v>6385.536125679092</v>
+        <v>4428.532460483819</v>
       </c>
       <c r="AF6" t="n">
-        <v>2546.406827957196</v>
+        <v>408.8201974402072</v>
       </c>
       <c r="AG6" t="n">
-        <v>238.9193001250018</v>
+        <v>1205.822881570749</v>
       </c>
       <c r="AH6" t="n">
-        <v>705.0310509940242</v>
+        <v>64.00046525797163</v>
       </c>
       <c r="AI6" t="n">
-        <v>38.02428117718127</v>
+        <v>5634.36081046365</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3251.43787895122</v>
+        <v>472.8083199251563</v>
       </c>
       <c r="AK6" t="n">
-        <v>276.9435813021831</v>
+        <v>647.0678300765063</v>
       </c>
       <c r="AL6" t="n">
-        <v>389.1473611612529</v>
+        <v>35.89394285629737</v>
       </c>
       <c r="AM6" t="n">
-        <v>20.66366743916788</v>
+        <v>446.4984285240668</v>
       </c>
       <c r="AN6" t="n">
-        <v>270.5978168650589</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>50.42173481422609</v>
+        <v>86.12026621649662</v>
       </c>
     </row>
     <row r="7">
@@ -1309,85 +1289,82 @@
         <v>153.9454232501997</v>
       </c>
       <c r="O7" t="n">
-        <v>369.0254859904113</v>
+        <v>55164.24557539069</v>
       </c>
       <c r="P7" t="n">
-        <v>35050.02098319466</v>
+        <v>1838.812141960316</v>
       </c>
       <c r="Q7" t="n">
-        <v>1838.812141960316</v>
+        <v>8898.362274511146</v>
       </c>
       <c r="R7" t="n">
-        <v>5200.070348136025</v>
+        <v>3973.378981835234</v>
       </c>
       <c r="S7" t="n">
-        <v>2148.215335179386</v>
+        <v>383.8612293822762</v>
       </c>
       <c r="T7" t="n">
-        <v>218.005135252574</v>
+        <v>1584.814162293949</v>
       </c>
       <c r="U7" t="n">
-        <v>819.8234562751875</v>
+        <v>81.15895994612015</v>
       </c>
       <c r="V7" t="n">
-        <v>44.49816689568365</v>
+        <v>5558.188656246466</v>
       </c>
       <c r="W7" t="n">
-        <v>2968.038791454573</v>
+        <v>465.022430985936</v>
       </c>
       <c r="X7" t="n">
-        <v>262.5033021482577</v>
+        <v>618.0287884242264</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.6519049210709</v>
+        <v>37.89061178425305</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.15425391061963</v>
+        <v>399.4044996625867</v>
       </c>
       <c r="AA7" t="n">
-        <v>257.5749217775655</v>
+        <v>56.6216916320059</v>
       </c>
       <c r="AB7" t="n">
-        <v>35.96028196705086</v>
+        <v>57986.82230424889</v>
       </c>
       <c r="AC7" t="n">
-        <v>39446.33255998602</v>
+        <v>1932.891828174327</v>
       </c>
       <c r="AD7" t="n">
-        <v>1932.891828174327</v>
+        <v>10584.27826154511</v>
       </c>
       <c r="AE7" t="n">
-        <v>6898.286413842124</v>
+        <v>3891.91440986007</v>
       </c>
       <c r="AF7" t="n">
-        <v>2468.872640605958</v>
+        <v>356.9437861233083</v>
       </c>
       <c r="AG7" t="n">
-        <v>240.7165115387363</v>
+        <v>982.6222973579079</v>
       </c>
       <c r="AH7" t="n">
-        <v>658.4621821349785</v>
+        <v>48.01766798202841</v>
       </c>
       <c r="AI7" t="n">
-        <v>35.28618141105895</v>
+        <v>4874.534475107157</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3127.334822740936</v>
+        <v>404.9659366437397</v>
       </c>
       <c r="AK7" t="n">
-        <v>276.0026929497953</v>
+        <v>649.7827246048062</v>
       </c>
       <c r="AL7" t="n">
-        <v>451.2752153919237</v>
+        <v>28.28318441520491</v>
       </c>
       <c r="AM7" t="n">
-        <v>19.10649899397854</v>
+        <v>469.9590492951007</v>
       </c>
       <c r="AN7" t="n">
-        <v>327.2217077279582</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>49.8905326190181</v>
+        <v>76.39704215961783</v>
       </c>
     </row>
     <row r="8">
@@ -1434,85 +1411,82 @@
         <v>163.1114454377844</v>
       </c>
       <c r="O8" t="n">
-        <v>378.8007156296654</v>
+        <v>52234.07392383389</v>
       </c>
       <c r="P8" t="n">
-        <v>32569.40882889754</v>
+        <v>1741.135704766446</v>
       </c>
       <c r="Q8" t="n">
-        <v>1741.135704766446</v>
+        <v>8585.17899279932</v>
       </c>
       <c r="R8" t="n">
-        <v>5036.995824215469</v>
+        <v>4231.127937773848</v>
       </c>
       <c r="S8" t="n">
-        <v>2286.365712936234</v>
+        <v>386.5206856466844</v>
       </c>
       <c r="T8" t="n">
-        <v>216.8767704795021</v>
+        <v>1713.117586987231</v>
       </c>
       <c r="U8" t="n">
-        <v>950.2099465723641</v>
+        <v>76.37223298171344</v>
       </c>
       <c r="V8" t="n">
-        <v>46.18132889798943</v>
+        <v>5944.241838269411</v>
       </c>
       <c r="W8" t="n">
-        <v>3236.575659508598</v>
+        <v>462.8871539754375</v>
       </c>
       <c r="X8" t="n">
-        <v>263.0580993774915</v>
+        <v>553.910987595655</v>
       </c>
       <c r="Y8" t="n">
-        <v>334.6951434475149</v>
+        <v>29.41970259787671</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.78345955542544</v>
+        <v>374.6408380266404</v>
       </c>
       <c r="AA8" t="n">
-        <v>231.3202370088411</v>
+        <v>66.76727657588152</v>
       </c>
       <c r="AB8" t="n">
-        <v>39.99368949343516</v>
+        <v>57662.36415840171</v>
       </c>
       <c r="AC8" t="n">
-        <v>39638.36403062051</v>
+        <v>1922.076061803787</v>
       </c>
       <c r="AD8" t="n">
-        <v>1922.076061803787</v>
+        <v>11048.38289664584</v>
       </c>
       <c r="AE8" t="n">
-        <v>7141.83696361591</v>
+        <v>4237.773629714779</v>
       </c>
       <c r="AF8" t="n">
-        <v>2729.138757801418</v>
+        <v>386.4218296838538</v>
       </c>
       <c r="AG8" t="n">
-        <v>258.7466702734478</v>
+        <v>1106.143102270787</v>
       </c>
       <c r="AH8" t="n">
-        <v>680.0421545225752</v>
+        <v>53.65211142201342</v>
       </c>
       <c r="AI8" t="n">
-        <v>36.53444619302384</v>
+        <v>5343.909494638217</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3409.180912323993</v>
+        <v>440.084704716674</v>
       </c>
       <c r="AK8" t="n">
-        <v>295.2811164664716</v>
+        <v>617.5648568589063</v>
       </c>
       <c r="AL8" t="n">
-        <v>437.7754234831679</v>
+        <v>33.93672457558677</v>
       </c>
       <c r="AM8" t="n">
-        <v>20.09024526047297</v>
+        <v>456.3376438969722</v>
       </c>
       <c r="AN8" t="n">
-        <v>327.0956673280019</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>53.96299451248242</v>
+        <v>82.24848605254806</v>
       </c>
     </row>
     <row r="9">
@@ -1559,85 +1533,82 @@
         <v>161.9556195135208</v>
       </c>
       <c r="O9" t="n">
-        <v>393.5846968051576</v>
+        <v>56329.9981091412</v>
       </c>
       <c r="P9" t="n">
-        <v>38359.66957080989</v>
+        <v>1877.662070561646</v>
       </c>
       <c r="Q9" t="n">
-        <v>1877.662070561646</v>
+        <v>9446.274183901922</v>
       </c>
       <c r="R9" t="n">
-        <v>6110.067206027246</v>
+        <v>4094.497854038334</v>
       </c>
       <c r="S9" t="n">
-        <v>2449.880838182939</v>
+        <v>390.938714740042</v>
       </c>
       <c r="T9" t="n">
-        <v>238.9063912221136</v>
+        <v>1640.368761209583</v>
       </c>
       <c r="U9" t="n">
-        <v>888.2377665895134</v>
+        <v>68.79886560408499</v>
       </c>
       <c r="V9" t="n">
-        <v>41.89159985519619</v>
+        <v>5734.870324434264</v>
       </c>
       <c r="W9" t="n">
-        <v>3338.118604772452</v>
+        <v>459.7506035752046</v>
       </c>
       <c r="X9" t="n">
-        <v>280.7979910773098</v>
+        <v>578.4007083703684</v>
       </c>
       <c r="Y9" t="n">
-        <v>383.8872849406361</v>
+        <v>39.59309967362525</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.91757297936037</v>
+        <v>373.6417071343245</v>
       </c>
       <c r="AA9" t="n">
-        <v>260.550071592039</v>
+        <v>68.96822367198305</v>
       </c>
       <c r="AB9" t="n">
-        <v>43.13480242394404</v>
+        <v>59273.032691466</v>
       </c>
       <c r="AC9" t="n">
-        <v>37031.66290381453</v>
+        <v>1975.766234488086</v>
       </c>
       <c r="AD9" t="n">
-        <v>1975.766234488086</v>
+        <v>11018.1275675223</v>
       </c>
       <c r="AE9" t="n">
-        <v>6600.644032295366</v>
+        <v>4291.062899045619</v>
       </c>
       <c r="AF9" t="n">
-        <v>2533.642077899898</v>
+        <v>410.8292434552968</v>
       </c>
       <c r="AG9" t="n">
-        <v>247.9585494121538</v>
+        <v>1236.569982935889</v>
       </c>
       <c r="AH9" t="n">
-        <v>686.1418706982762</v>
+        <v>61.78924913081083</v>
       </c>
       <c r="AI9" t="n">
-        <v>35.39829622863441</v>
+        <v>5527.638437498815</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3219.783948598174</v>
+        <v>472.625935974171</v>
       </c>
       <c r="AK9" t="n">
-        <v>283.3568456407882</v>
+        <v>678.4266726399134</v>
       </c>
       <c r="AL9" t="n">
-        <v>420.8328201232228</v>
+        <v>32.60652027573706</v>
       </c>
       <c r="AM9" t="n">
-        <v>19.18539553221387</v>
+        <v>483.3949116364829</v>
       </c>
       <c r="AN9" t="n">
-        <v>302.4916977873361</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>52.13428003691457</v>
+        <v>89.34215789362939</v>
       </c>
     </row>
     <row r="10">
@@ -1684,85 +1655,82 @@
         <v>155.6366759758033</v>
       </c>
       <c r="O10" t="n">
-        <v>379.7260333154869</v>
+        <v>53215.47156067794</v>
       </c>
       <c r="P10" t="n">
-        <v>34971.5605151065</v>
+        <v>1773.846046740553</v>
       </c>
       <c r="Q10" t="n">
-        <v>1773.846046740553</v>
+        <v>8890.364175404111</v>
       </c>
       <c r="R10" t="n">
-        <v>5563.829565223107</v>
+        <v>3865.126052461676</v>
       </c>
       <c r="S10" t="n">
-        <v>2339.443149098818</v>
+        <v>337.6560723776862</v>
       </c>
       <c r="T10" t="n">
-        <v>216.0741899729123</v>
+        <v>1563.496073699668</v>
       </c>
       <c r="U10" t="n">
-        <v>956.2224891249301</v>
+        <v>70.98483318245151</v>
       </c>
       <c r="V10" t="n">
-        <v>47.18361037833015</v>
+        <v>5428.605704254816</v>
       </c>
       <c r="W10" t="n">
-        <v>3295.665638223748</v>
+        <v>408.6478347292258</v>
       </c>
       <c r="X10" t="n">
-        <v>263.2578003512424</v>
+        <v>557.4970031234619</v>
       </c>
       <c r="Y10" t="n">
-        <v>360.67195192718</v>
+        <v>33.82053110695904</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.45816155715724</v>
+        <v>377.7735019137395</v>
       </c>
       <c r="AA10" t="n">
-        <v>249.6717990296424</v>
+        <v>62.34699865165759</v>
       </c>
       <c r="AB10" t="n">
-        <v>41.24632290709935</v>
+        <v>57852.81978072356</v>
       </c>
       <c r="AC10" t="n">
-        <v>35615.90557644943</v>
+        <v>1928.427430391659</v>
       </c>
       <c r="AD10" t="n">
-        <v>1928.427430391659</v>
+        <v>10949.21947509612</v>
       </c>
       <c r="AE10" t="n">
-        <v>6325.032737481229</v>
+        <v>4733.021013483146</v>
       </c>
       <c r="AF10" t="n">
-        <v>2639.632202853163</v>
+        <v>423.854814923461</v>
       </c>
       <c r="AG10" t="n">
-        <v>244.540952767977</v>
+        <v>1361.762053789082</v>
       </c>
       <c r="AH10" t="n">
-        <v>768.0681281261276</v>
+        <v>75.66192868753839</v>
       </c>
       <c r="AI10" t="n">
-        <v>43.81555068705505</v>
+        <v>6094.780948031345</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3407.70033097929</v>
+        <v>499.5148407668948</v>
       </c>
       <c r="AK10" t="n">
-        <v>288.356503455032</v>
+        <v>644.7776767412599</v>
       </c>
       <c r="AL10" t="n">
-        <v>401.0439307738984</v>
+        <v>27.84237078542533</v>
       </c>
       <c r="AM10" t="n">
-        <v>18.1137797527973</v>
+        <v>447.2332534327963</v>
       </c>
       <c r="AN10" t="n">
-        <v>283.1700570776234</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>47.58028221637136</v>
+        <v>79.13174289538338</v>
       </c>
     </row>
     <row r="11">
@@ -1809,85 +1777,82 @@
         <v>163.3534169549393</v>
       </c>
       <c r="O11" t="n">
-        <v>368.5567182375989</v>
+        <v>53286.1923133085</v>
       </c>
       <c r="P11" t="n">
-        <v>35339.70523367669</v>
+        <v>1776.20343925418</v>
       </c>
       <c r="Q11" t="n">
-        <v>1776.20343925418</v>
+        <v>8628.425978101104</v>
       </c>
       <c r="R11" t="n">
-        <v>5416.149645514995</v>
+        <v>3642.060239053354</v>
       </c>
       <c r="S11" t="n">
-        <v>2212.957619333082</v>
+        <v>335.9612391552088</v>
       </c>
       <c r="T11" t="n">
-        <v>211.304603963581</v>
+        <v>1395.60607070418</v>
       </c>
       <c r="U11" t="n">
-        <v>812.3571376163997</v>
+        <v>68.45257860743422</v>
       </c>
       <c r="V11" t="n">
-        <v>43.26814002591766</v>
+        <v>5037.667894623902</v>
       </c>
       <c r="W11" t="n">
-        <v>3025.314756949482</v>
+        <v>404.4300498109264</v>
       </c>
       <c r="X11" t="n">
-        <v>254.5727439894987</v>
+        <v>547.6859158977654</v>
       </c>
       <c r="Y11" t="n">
-        <v>345.2042671427819</v>
+        <v>35.86794505297249</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.18761638141066</v>
+        <v>382.8943333048967</v>
       </c>
       <c r="AA11" t="n">
-        <v>252.3669460489388</v>
+        <v>68.43752802505739</v>
       </c>
       <c r="AB11" t="n">
-        <v>41.27414894417954</v>
+        <v>56725.80108707701</v>
       </c>
       <c r="AC11" t="n">
-        <v>36936.68964151167</v>
+        <v>1890.859444634628</v>
       </c>
       <c r="AD11" t="n">
-        <v>1890.859444634628</v>
+        <v>10952.62702885067</v>
       </c>
       <c r="AE11" t="n">
-        <v>6839.79124772473</v>
+        <v>4288.76403962435</v>
       </c>
       <c r="AF11" t="n">
-        <v>2797.35139687335</v>
+        <v>401.9501788358263</v>
       </c>
       <c r="AG11" t="n">
-        <v>252.3076955717273</v>
+        <v>1058.40703017768</v>
       </c>
       <c r="AH11" t="n">
-        <v>649.48906321743</v>
+        <v>56.84803461068211</v>
       </c>
       <c r="AI11" t="n">
-        <v>35.89563861855618</v>
+        <v>5347.167291898479</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3446.84046009078</v>
+        <v>458.8035981904853</v>
       </c>
       <c r="AK11" t="n">
-        <v>288.2033341902834</v>
+        <v>658.95419660494</v>
       </c>
       <c r="AL11" t="n">
-        <v>421.5776898388511</v>
+        <v>37.3021317327739</v>
       </c>
       <c r="AM11" t="n">
-        <v>20.97883022773384</v>
+        <v>445.8561861924201</v>
       </c>
       <c r="AN11" t="n">
-        <v>298.158260798518</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>59.03930270428458</v>
+        <v>99.65664935648741</v>
       </c>
     </row>
     <row r="12">
@@ -1934,85 +1899,82 @@
         <v>168.2407533944857</v>
       </c>
       <c r="O12" t="n">
-        <v>346.3267117861661</v>
+        <v>49840.35804343144</v>
       </c>
       <c r="P12" t="n">
-        <v>34437.19053251129</v>
+        <v>1661.349777102197</v>
       </c>
       <c r="Q12" t="n">
-        <v>1661.349777102197</v>
+        <v>8455.088980589449</v>
       </c>
       <c r="R12" t="n">
-        <v>5557.806034251532</v>
+        <v>3727.870533515828</v>
       </c>
       <c r="S12" t="n">
-        <v>2329.434744450887</v>
+        <v>344.5077725252457</v>
       </c>
       <c r="T12" t="n">
-        <v>220.6052279995661</v>
+        <v>1269.438762034874</v>
       </c>
       <c r="U12" t="n">
-        <v>808.0377304445185</v>
+        <v>60.2326809019836</v>
       </c>
       <c r="V12" t="n">
-        <v>40.84646431249448</v>
+        <v>4997.318322425717</v>
       </c>
       <c r="W12" t="n">
-        <v>3137.472474895406</v>
+        <v>404.7385449695811</v>
       </c>
       <c r="X12" t="n">
-        <v>261.4516923120606</v>
+        <v>518.8278342498219</v>
       </c>
       <c r="Y12" t="n">
-        <v>356.2909118609996</v>
+        <v>28.53482390609747</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.07451472590977</v>
+        <v>344.4876024080068</v>
       </c>
       <c r="AA12" t="n">
-        <v>244.4839726991563</v>
+        <v>54.71862896662195</v>
       </c>
       <c r="AB12" t="n">
-        <v>36.39737883229911</v>
+        <v>53101.725949967</v>
       </c>
       <c r="AC12" t="n">
-        <v>39583.29981971043</v>
+        <v>1770.059716215159</v>
       </c>
       <c r="AD12" t="n">
-        <v>1770.059716215159</v>
+        <v>10294.18908238108</v>
       </c>
       <c r="AE12" t="n">
-        <v>7353.945202248433</v>
+        <v>3959.257502431559</v>
       </c>
       <c r="AF12" t="n">
-        <v>2814.619244102134</v>
+        <v>370.6910865644783</v>
       </c>
       <c r="AG12" t="n">
-        <v>264.7980650503173</v>
+        <v>1081.701775801844</v>
       </c>
       <c r="AH12" t="n">
-        <v>743.3713325235012</v>
+        <v>51.94668629363023</v>
       </c>
       <c r="AI12" t="n">
-        <v>37.9585779409054</v>
+        <v>5040.961423269549</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3557.990576625636</v>
+        <v>422.6323071828871</v>
       </c>
       <c r="AK12" t="n">
-        <v>302.7566429912227</v>
+        <v>615.4219138400467</v>
       </c>
       <c r="AL12" t="n">
-        <v>475.3157237830467</v>
+        <v>33.22246782945976</v>
       </c>
       <c r="AM12" t="n">
-        <v>21.13362697341947</v>
+        <v>454.6586017728138</v>
       </c>
       <c r="AN12" t="n">
-        <v>355.8755341475852</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>56.71968961813021</v>
+        <v>78.41960069254856</v>
       </c>
     </row>
     <row r="13">
@@ -2059,85 +2021,82 @@
         <v>166.5745205990428</v>
       </c>
       <c r="O13" t="n">
-        <v>382.8816156968569</v>
+        <v>55601.05114938274</v>
       </c>
       <c r="P13" t="n">
-        <v>39496.03863670348</v>
+        <v>1853.37083129962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1853.37083129962</v>
+        <v>9242.509606984044</v>
       </c>
       <c r="R13" t="n">
-        <v>6209.40625925972</v>
+        <v>3972.157449756869</v>
       </c>
       <c r="S13" t="n">
-        <v>2521.142783731651</v>
+        <v>367.2373352033362</v>
       </c>
       <c r="T13" t="n">
-        <v>235.2207081454963</v>
+        <v>1575.40964158404</v>
       </c>
       <c r="U13" t="n">
-        <v>912.3627530491326</v>
+        <v>78.6491049379207</v>
       </c>
       <c r="V13" t="n">
-        <v>47.69910098404264</v>
+        <v>5547.557862867136</v>
       </c>
       <c r="W13" t="n">
-        <v>3433.505536780784</v>
+        <v>445.8933656262182</v>
       </c>
       <c r="X13" t="n">
-        <v>282.9198091295389</v>
+        <v>574.4816267164853</v>
       </c>
       <c r="Y13" t="n">
-        <v>404.2555037363853</v>
+        <v>29.41916399539521</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.34324636616136</v>
+        <v>388.4844619108099</v>
       </c>
       <c r="AA13" t="n">
-        <v>282.7973545362529</v>
+        <v>63.37832699688344</v>
       </c>
       <c r="AB13" t="n">
-        <v>44.5442506051882</v>
+        <v>60258.93962382081</v>
       </c>
       <c r="AC13" t="n">
-        <v>33700.86810676727</v>
+        <v>2008.636165593964</v>
       </c>
       <c r="AD13" t="n">
-        <v>2008.636165593964</v>
+        <v>11386.32581861889</v>
       </c>
       <c r="AE13" t="n">
-        <v>6271.35066432544</v>
+        <v>4774.888420115316</v>
       </c>
       <c r="AF13" t="n">
-        <v>2599.208067062969</v>
+        <v>451.244483341979</v>
       </c>
       <c r="AG13" t="n">
-        <v>243.1061707333104</v>
+        <v>1655.190109307224</v>
       </c>
       <c r="AH13" t="n">
-        <v>773.4528429199673</v>
+        <v>71.32790459661908</v>
       </c>
       <c r="AI13" t="n">
-        <v>37.73909308241011</v>
+        <v>6430.085380239943</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3372.660909982936</v>
+        <v>522.5770768430425</v>
       </c>
       <c r="AK13" t="n">
-        <v>280.8452638157205</v>
+        <v>713.2123257490674</v>
       </c>
       <c r="AL13" t="n">
-        <v>395.1502874664058</v>
+        <v>36.0103668367444</v>
       </c>
       <c r="AM13" t="n">
-        <v>19.1643627147467</v>
+        <v>482.7484656883673</v>
       </c>
       <c r="AN13" t="n">
-        <v>270.0954390661636</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>52.94522613211399</v>
+        <v>100.1313895113759</v>
       </c>
     </row>
     <row r="14">
@@ -2184,85 +2143,82 @@
         <v>155.7424725705192</v>
       </c>
       <c r="O14" t="n">
-        <v>368.8734253842047</v>
+        <v>52790.66025927316</v>
       </c>
       <c r="P14" t="n">
-        <v>38884.32114584804</v>
+        <v>1759.689732320809</v>
       </c>
       <c r="Q14" t="n">
-        <v>1759.689732320809</v>
+        <v>8589.100697484373</v>
       </c>
       <c r="R14" t="n">
-        <v>6235.162685556073</v>
+        <v>3506.083212836711</v>
       </c>
       <c r="S14" t="n">
-        <v>2480.538383046574</v>
+        <v>322.5371814217659</v>
       </c>
       <c r="T14" t="n">
-        <v>232.4034770265265</v>
+        <v>1254.651836487479</v>
       </c>
       <c r="U14" t="n">
-        <v>899.8982571088163</v>
+        <v>59.77611253043515</v>
       </c>
       <c r="V14" t="n">
-        <v>44.55413949694955</v>
+        <v>4760.738811070947</v>
       </c>
       <c r="W14" t="n">
-        <v>3380.43664015539</v>
+        <v>382.3261134739712</v>
       </c>
       <c r="X14" t="n">
-        <v>276.957616523476</v>
+        <v>538.1173586363184</v>
       </c>
       <c r="Y14" t="n">
-        <v>391.4818209000086</v>
+        <v>28.12455511374656</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.05632550497686</v>
+        <v>361.1056007945027</v>
       </c>
       <c r="AA14" t="n">
-        <v>268.5292600720124</v>
+        <v>54.54302582982228</v>
       </c>
       <c r="AB14" t="n">
-        <v>37.91780743838535</v>
+        <v>55390.62023309786</v>
       </c>
       <c r="AC14" t="n">
-        <v>34822.40854574215</v>
+        <v>1846.351003854972</v>
       </c>
       <c r="AD14" t="n">
-        <v>1846.351003854972</v>
+        <v>10439.85795535446</v>
       </c>
       <c r="AE14" t="n">
-        <v>6392.017466285715</v>
+        <v>4382.307631324521</v>
       </c>
       <c r="AF14" t="n">
-        <v>2651.167443673406</v>
+        <v>392.1722668451765</v>
       </c>
       <c r="AG14" t="n">
-        <v>240.4364507471494</v>
+        <v>1179.026254115357</v>
       </c>
       <c r="AH14" t="n">
-        <v>727.9252461183361</v>
+        <v>59.70363105936939</v>
       </c>
       <c r="AI14" t="n">
-        <v>38.33820238088224</v>
+        <v>5561.344865099867</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3379.092689791742</v>
+        <v>451.8723753695705</v>
       </c>
       <c r="AK14" t="n">
-        <v>278.7746531280317</v>
+        <v>608.6653531156559</v>
       </c>
       <c r="AL14" t="n">
-        <v>378.8818517776493</v>
+        <v>30.24257469963446</v>
       </c>
       <c r="AM14" t="n">
-        <v>17.66998116957966</v>
+        <v>437.7952409913907</v>
       </c>
       <c r="AN14" t="n">
-        <v>279.670059868169</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>48.23119114334283</v>
+        <v>81.27466379411503</v>
       </c>
     </row>
     <row r="15">
@@ -2309,85 +2265,82 @@
         <v>158.9364960715829</v>
       </c>
       <c r="O15" t="n">
-        <v>361.151732335391</v>
+        <v>54294.05976672065</v>
       </c>
       <c r="P15" t="n">
-        <v>36385.71177476951</v>
+        <v>1809.804919708165</v>
       </c>
       <c r="Q15" t="n">
-        <v>1809.804919708165</v>
+        <v>9224.595313746267</v>
       </c>
       <c r="R15" t="n">
-        <v>5818.510389819176</v>
+        <v>4079.593225356672</v>
       </c>
       <c r="S15" t="n">
-        <v>2393.69774124113</v>
+        <v>351.4201677068536</v>
       </c>
       <c r="T15" t="n">
-        <v>221.9001807471078</v>
+        <v>1353.28528949178</v>
       </c>
       <c r="U15" t="n">
-        <v>817.6724663644342</v>
+        <v>64.89334184149186</v>
       </c>
       <c r="V15" t="n">
-        <v>42.72070406857573</v>
+        <v>5432.8894584421</v>
       </c>
       <c r="W15" t="n">
-        <v>3211.370207605563</v>
+        <v>416.3207481025617</v>
       </c>
       <c r="X15" t="n">
-        <v>264.6208848156835</v>
+        <v>575.2513250530947</v>
       </c>
       <c r="Y15" t="n">
-        <v>375.5391106252403</v>
+        <v>39.85368345822229</v>
       </c>
       <c r="Z15" t="n">
-        <v>24.36840014879962</v>
+        <v>371.0612652758379</v>
       </c>
       <c r="AA15" t="n">
-        <v>255.9966252741193</v>
+        <v>65.03910577660542</v>
       </c>
       <c r="AB15" t="n">
-        <v>41.85963899817101</v>
+        <v>58158.70234323214</v>
       </c>
       <c r="AC15" t="n">
-        <v>35466.06216234351</v>
+        <v>1938.627321773055</v>
       </c>
       <c r="AD15" t="n">
-        <v>1938.627321773055</v>
+        <v>11289.39257592753</v>
       </c>
       <c r="AE15" t="n">
-        <v>6619.522592987638</v>
+        <v>4731.922100002157</v>
       </c>
       <c r="AF15" t="n">
-        <v>2752.363157117467</v>
+        <v>420.8804780103935</v>
       </c>
       <c r="AG15" t="n">
-        <v>246.8412877417753</v>
+        <v>1362.190684434932</v>
       </c>
       <c r="AH15" t="n">
-        <v>796.7147423863046</v>
+        <v>65.14246968113552</v>
       </c>
       <c r="AI15" t="n">
-        <v>37.47598862680756</v>
+        <v>6094.114676787699</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3549.077899503772</v>
+        <v>486.0285359440634</v>
       </c>
       <c r="AK15" t="n">
-        <v>284.3172763685828</v>
+        <v>637.4011508840744</v>
       </c>
       <c r="AL15" t="n">
-        <v>398.8388801246381</v>
+        <v>29.37742295616875</v>
       </c>
       <c r="AM15" t="n">
-        <v>18.07499510991103</v>
+        <v>458.4909764420792</v>
       </c>
       <c r="AN15" t="n">
-        <v>288.8558345356786</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>52.07180578971711</v>
+        <v>90.43992377720988</v>
       </c>
     </row>
     <row r="16">
@@ -2434,85 +2387,82 @@
         <v>187.3055166748464</v>
       </c>
       <c r="O16" t="n">
-        <v>345.6899769912928</v>
+        <v>50105.31232644575</v>
       </c>
       <c r="P16" t="n">
-        <v>37072.52456833339</v>
+        <v>1670.175398028266</v>
       </c>
       <c r="Q16" t="n">
-        <v>1670.175398028266</v>
+        <v>8302.505295692634</v>
       </c>
       <c r="R16" t="n">
-        <v>5966.268631090447</v>
+        <v>3598.546526957044</v>
       </c>
       <c r="S16" t="n">
-        <v>2521.731636619317</v>
+        <v>350.1384253957735</v>
       </c>
       <c r="T16" t="n">
-        <v>239.1799942785219</v>
+        <v>1508.277759113394</v>
       </c>
       <c r="U16" t="n">
-        <v>895.3956747554979</v>
+        <v>78.1655741301477</v>
       </c>
       <c r="V16" t="n">
-        <v>48.48977132760275</v>
+        <v>5106.822398555972</v>
       </c>
       <c r="W16" t="n">
-        <v>3417.127311374815</v>
+        <v>428.3003519681121</v>
       </c>
       <c r="X16" t="n">
-        <v>287.6697656061247</v>
+        <v>555.3237092869318</v>
       </c>
       <c r="Y16" t="n">
-        <v>403.7754362024136</v>
+        <v>29.49671332250375</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.97228970076029</v>
+        <v>371.327692940565</v>
       </c>
       <c r="AA16" t="n">
-        <v>281.7683126940146</v>
+        <v>57.50285987556089</v>
       </c>
       <c r="AB16" t="n">
-        <v>38.42835587124873</v>
+        <v>55463.99801973832</v>
       </c>
       <c r="AC16" t="n">
-        <v>39240.04926564048</v>
+        <v>1848.801281388494</v>
       </c>
       <c r="AD16" t="n">
-        <v>1848.801281388494</v>
+        <v>10917.51575315299</v>
       </c>
       <c r="AE16" t="n">
-        <v>7556.483587986912</v>
+        <v>4329.965577464745</v>
       </c>
       <c r="AF16" t="n">
-        <v>3007.271464650453</v>
+        <v>420.9499245251296</v>
       </c>
       <c r="AG16" t="n">
-        <v>286.312539164831</v>
+        <v>1459.703157413103</v>
       </c>
       <c r="AH16" t="n">
-        <v>861.577621943465</v>
+        <v>61.9693804338507</v>
       </c>
       <c r="AI16" t="n">
-        <v>42.51869320321945</v>
+        <v>5789.677865799315</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3868.849086593918</v>
+        <v>482.9245479077442</v>
       </c>
       <c r="AK16" t="n">
-        <v>328.8312323680505</v>
+        <v>683.2627148968882</v>
       </c>
       <c r="AL16" t="n">
-        <v>487.1986012210511</v>
+        <v>31.54288501606155</v>
       </c>
       <c r="AM16" t="n">
-        <v>24.0673508624584</v>
+        <v>495.0681467157516</v>
       </c>
       <c r="AN16" t="n">
-        <v>351.7580965455542</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>64.48561823347423</v>
+        <v>96.92230153284154</v>
       </c>
     </row>
     <row r="17">
@@ -2559,85 +2509,82 @@
         <v>163.9209918541222</v>
       </c>
       <c r="O17" t="n">
-        <v>352.194733139939</v>
+        <v>50687.69295421883</v>
       </c>
       <c r="P17" t="n">
-        <v>40836.69821547942</v>
+        <v>1689.596526918005</v>
       </c>
       <c r="Q17" t="n">
-        <v>1689.596526918005</v>
+        <v>8184.43225461464</v>
       </c>
       <c r="R17" t="n">
-        <v>6246.580842911855</v>
+        <v>2936.897186477086</v>
       </c>
       <c r="S17" t="n">
-        <v>2184.801050710677</v>
+        <v>289.6600146514602</v>
       </c>
       <c r="T17" t="n">
-        <v>219.3287050878621</v>
+        <v>852.1197164970606</v>
       </c>
       <c r="U17" t="n">
-        <v>620.7046049150639</v>
+        <v>47.64945665060275</v>
       </c>
       <c r="V17" t="n">
-        <v>34.064716819659</v>
+        <v>3789.023819942526</v>
       </c>
       <c r="W17" t="n">
-        <v>2805.505655625741</v>
+        <v>337.3119032807503</v>
       </c>
       <c r="X17" t="n">
-        <v>253.3934219075211</v>
+        <v>564.9832025991133</v>
       </c>
       <c r="Y17" t="n">
-        <v>434.6136038549017</v>
+        <v>35.40697715453893</v>
       </c>
       <c r="Z17" t="n">
-        <v>26.67592407481841</v>
+        <v>401.7317770515637</v>
       </c>
       <c r="AA17" t="n">
-        <v>321.2090320224743</v>
+        <v>58.57372002280761</v>
       </c>
       <c r="AB17" t="n">
-        <v>45.47160459295364</v>
+        <v>55087.53889068283</v>
       </c>
       <c r="AC17" t="n">
-        <v>32205.2212949212</v>
+        <v>1836.252892963586</v>
       </c>
       <c r="AD17" t="n">
-        <v>1836.252892963586</v>
+        <v>11364.82412133338</v>
       </c>
       <c r="AE17" t="n">
-        <v>6266.932889329159</v>
+        <v>4344.482431046004</v>
       </c>
       <c r="AF17" t="n">
-        <v>2438.303265158082</v>
+        <v>400.1057027280852</v>
       </c>
       <c r="AG17" t="n">
-        <v>230.6603469961499</v>
+        <v>1110.562779853131</v>
       </c>
       <c r="AH17" t="n">
-        <v>641.470233932703</v>
+        <v>53.88546015813371</v>
       </c>
       <c r="AI17" t="n">
-        <v>32.94247029325393</v>
+        <v>5455.038066856458</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3079.773499090785</v>
+        <v>453.9842033318662</v>
       </c>
       <c r="AK17" t="n">
-        <v>263.6028172894038</v>
+        <v>676.9347084994241</v>
       </c>
       <c r="AL17" t="n">
-        <v>409.9500406783585</v>
+        <v>30.88754007380788</v>
       </c>
       <c r="AM17" t="n">
-        <v>19.84937007430567</v>
+        <v>476.9395276421197</v>
       </c>
       <c r="AN17" t="n">
-        <v>289.6197368939542</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>49.10379898343387</v>
+        <v>78.60892684630608</v>
       </c>
     </row>
     <row r="18">
@@ -2684,85 +2631,82 @@
         <v>165.6307526585219</v>
       </c>
       <c r="O18" t="n">
-        <v>382.9115646020866</v>
+        <v>59747.99122934879</v>
       </c>
       <c r="P18" t="n">
-        <v>36956.18669666782</v>
+        <v>1991.601061083219</v>
       </c>
       <c r="Q18" t="n">
-        <v>1991.601061083219</v>
+        <v>10803.42080583613</v>
       </c>
       <c r="R18" t="n">
-        <v>6115.038858138485</v>
+        <v>4335.167467323203</v>
       </c>
       <c r="S18" t="n">
-        <v>2445.199949064871</v>
+        <v>409.0442145532133</v>
       </c>
       <c r="T18" t="n">
-        <v>231.9147878346907</v>
+        <v>1606.75212930212</v>
       </c>
       <c r="U18" t="n">
-        <v>792.9883460788553</v>
+        <v>74.36825281627793</v>
       </c>
       <c r="V18" t="n">
-        <v>40.76736318827953</v>
+        <v>5941.91223808311</v>
       </c>
       <c r="W18" t="n">
-        <v>3238.188295143727</v>
+        <v>483.4181724194133</v>
       </c>
       <c r="X18" t="n">
-        <v>272.6821510229702</v>
+        <v>636.4395735710702</v>
       </c>
       <c r="Y18" t="n">
-        <v>385.6690890850035</v>
+        <v>37.0932287006177</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.60368242952274</v>
+        <v>429.8892747604032</v>
       </c>
       <c r="AA18" t="n">
-        <v>264.7574239513797</v>
+        <v>63.40334046922371</v>
       </c>
       <c r="AB18" t="n">
-        <v>38.31265051722156</v>
+        <v>64648.28482373686</v>
       </c>
       <c r="AC18" t="n">
-        <v>38695.13973023025</v>
+        <v>2154.938365525682</v>
       </c>
       <c r="AD18" t="n">
-        <v>2154.938365525682</v>
+        <v>13540.69469171205</v>
       </c>
       <c r="AE18" t="n">
-        <v>7764.474670047881</v>
+        <v>5809.297834641004</v>
       </c>
       <c r="AF18" t="n">
-        <v>3283.27584507218</v>
+        <v>490.2768838005146</v>
       </c>
       <c r="AG18" t="n">
-        <v>288.1489639495245</v>
+        <v>1352.55176594003</v>
       </c>
       <c r="AH18" t="n">
-        <v>778.9661493512806</v>
+        <v>58.82580882954344</v>
       </c>
       <c r="AI18" t="n">
-        <v>39.81866519090196</v>
+        <v>7161.851584133391</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4062.24199442346</v>
+        <v>549.0954871258253</v>
       </c>
       <c r="AK18" t="n">
-        <v>327.9676291404265</v>
+        <v>723.9410440567956</v>
       </c>
       <c r="AL18" t="n">
-        <v>444.5471462237713</v>
+        <v>29.16331056503752</v>
       </c>
       <c r="AM18" t="n">
-        <v>17.87446262639475</v>
+        <v>524.2998681173596</v>
       </c>
       <c r="AN18" t="n">
-        <v>322.8584086540581</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>57.43463745530816</v>
+        <v>98.98415250076752</v>
       </c>
     </row>
     <row r="19">
@@ -2809,85 +2753,82 @@
         <v>171.1957937794441</v>
       </c>
       <c r="O19" t="n">
-        <v>377.7684415594011</v>
+        <v>55978.08078787955</v>
       </c>
       <c r="P19" t="n">
-        <v>38021.57687016878</v>
+        <v>1865.936382658589</v>
       </c>
       <c r="Q19" t="n">
-        <v>1865.936382658589</v>
+        <v>8839.062606443642</v>
       </c>
       <c r="R19" t="n">
-        <v>5843.292318028713</v>
+        <v>3900.613706586127</v>
       </c>
       <c r="S19" t="n">
-        <v>2397.124992186969</v>
+        <v>372.1905894416303</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9984305545968</v>
+        <v>1509.269386870817</v>
       </c>
       <c r="U19" t="n">
-        <v>820.4363133676297</v>
+        <v>67.32032244851372</v>
       </c>
       <c r="V19" t="n">
-        <v>42.38990888266882</v>
+        <v>5409.879400917533</v>
       </c>
       <c r="W19" t="n">
-        <v>3217.561305554599</v>
+        <v>439.4942037436217</v>
       </c>
       <c r="X19" t="n">
-        <v>270.3883394372656</v>
+        <v>604.6184417205535</v>
       </c>
       <c r="Y19" t="n">
-        <v>399.7021228249234</v>
+        <v>34.43256869899945</v>
       </c>
       <c r="Z19" t="n">
-        <v>26.76257130712143</v>
+        <v>402.9866459473936</v>
       </c>
       <c r="AA19" t="n">
-        <v>280.1860994456269</v>
+        <v>72.21384989516619</v>
       </c>
       <c r="AB19" t="n">
-        <v>43.35836335114764</v>
+        <v>62506.13759138556</v>
       </c>
       <c r="AC19" t="n">
-        <v>37353.85297658791</v>
+        <v>2083.535668986342</v>
       </c>
       <c r="AD19" t="n">
-        <v>2083.535668986342</v>
+        <v>12359.15631631455</v>
       </c>
       <c r="AE19" t="n">
-        <v>7033.08180182757</v>
+        <v>5018.348004607348</v>
       </c>
       <c r="AF19" t="n">
-        <v>2973.275857432655</v>
+        <v>449.5995413833231</v>
       </c>
       <c r="AG19" t="n">
-        <v>276.7135293535429</v>
+        <v>1250.167928224081</v>
       </c>
       <c r="AH19" t="n">
-        <v>785.19913582703</v>
+        <v>62.02812244271274</v>
       </c>
       <c r="AI19" t="n">
-        <v>43.07736830004755</v>
+        <v>6268.519611300808</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3758.474993259685</v>
+        <v>511.6294697153705</v>
       </c>
       <c r="AK19" t="n">
-        <v>319.7908976535905</v>
+        <v>718.198678928183</v>
       </c>
       <c r="AL19" t="n">
-        <v>438.4137593421589</v>
+        <v>36.55219111486399</v>
       </c>
       <c r="AM19" t="n">
-        <v>22.67558362455511</v>
+        <v>510.7777018868262</v>
       </c>
       <c r="AN19" t="n">
-        <v>310.3817352394966</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>53.75729203644839</v>
+        <v>96.68250800615225</v>
       </c>
     </row>
     <row r="20">
@@ -2934,85 +2875,82 @@
         <v>152.9791995374396</v>
       </c>
       <c r="O20" t="n">
-        <v>364.8391830394631</v>
+        <v>51289.9691225147</v>
       </c>
       <c r="P20" t="n">
-        <v>35662.65125497725</v>
+        <v>1709.670015526779</v>
       </c>
       <c r="Q20" t="n">
-        <v>1709.670015526779</v>
+        <v>8531.819265416067</v>
       </c>
       <c r="R20" t="n">
-        <v>5719.524001585938</v>
+        <v>3647.099351401963</v>
       </c>
       <c r="S20" t="n">
-        <v>2315.153226049367</v>
+        <v>333.2597054747301</v>
       </c>
       <c r="T20" t="n">
-        <v>214.9102491148778</v>
+        <v>1206.026356486255</v>
       </c>
       <c r="U20" t="n">
-        <v>738.8006226831764</v>
+        <v>53.56781660685772</v>
       </c>
       <c r="V20" t="n">
-        <v>36.59430984306924</v>
+        <v>4853.125581701563</v>
       </c>
       <c r="W20" t="n">
-        <v>3053.953848732544</v>
+        <v>386.8312281802307</v>
       </c>
       <c r="X20" t="n">
-        <v>251.504558957947</v>
+        <v>533.3332332792238</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.0686123282697</v>
+        <v>31.80753169965425</v>
       </c>
       <c r="Z20" t="n">
-        <v>21.63369446677782</v>
+        <v>353.3364438242762</v>
       </c>
       <c r="AA20" t="n">
-        <v>249.1477128873105</v>
+        <v>52.86567175873148</v>
       </c>
       <c r="AB20" t="n">
-        <v>40.4171541475888</v>
+        <v>58599.55149975464</v>
       </c>
       <c r="AC20" t="n">
-        <v>33877.0868010441</v>
+        <v>1953.31995844235</v>
       </c>
       <c r="AD20" t="n">
-        <v>1953.31995844235</v>
+        <v>12083.43838045401</v>
       </c>
       <c r="AE20" t="n">
-        <v>6610.152577373784</v>
+        <v>5094.598172092294</v>
       </c>
       <c r="AF20" t="n">
-        <v>2787.552056792476</v>
+        <v>448.9898980587409</v>
       </c>
       <c r="AG20" t="n">
-        <v>254.7732931914908</v>
+        <v>1446.201528309012</v>
       </c>
       <c r="AH20" t="n">
-        <v>813.7488824422481</v>
+        <v>67.96156296761528</v>
       </c>
       <c r="AI20" t="n">
-        <v>40.73779220493356</v>
+        <v>6540.794064471268</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3601.300939234724</v>
+        <v>516.9642686405712</v>
       </c>
       <c r="AK20" t="n">
-        <v>295.5110853964244</v>
+        <v>685.2651423784584</v>
       </c>
       <c r="AL20" t="n">
-        <v>406.2971172342434</v>
+        <v>35.15085141631686</v>
       </c>
       <c r="AM20" t="n">
-        <v>20.85621219327986</v>
+        <v>468.7878325721492</v>
       </c>
       <c r="AN20" t="n">
-        <v>279.7511896377379</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>47.78049516926634</v>
+        <v>85.46329507306498</v>
       </c>
     </row>
     <row r="21">
@@ -3059,85 +2997,82 @@
         <v>175.6046954381496</v>
       </c>
       <c r="O21" t="n">
-        <v>362.7419887556902</v>
+        <v>51189.15868185375</v>
       </c>
       <c r="P21" t="n">
-        <v>40280.93687949079</v>
+        <v>1706.297319309385</v>
       </c>
       <c r="Q21" t="n">
-        <v>1706.297319309385</v>
+        <v>8206.535796510752</v>
       </c>
       <c r="R21" t="n">
-        <v>6386.038608330802</v>
+        <v>3381.527307049053</v>
       </c>
       <c r="S21" t="n">
-        <v>2503.611730399615</v>
+        <v>332.4134036248051</v>
       </c>
       <c r="T21" t="n">
-        <v>239.1056084053009</v>
+        <v>1728.189444631055</v>
       </c>
       <c r="U21" t="n">
-        <v>926.0915771287915</v>
+        <v>59.09637487989478</v>
       </c>
       <c r="V21" t="n">
-        <v>43.08303172656205</v>
+        <v>5109.725878745646</v>
       </c>
       <c r="W21" t="n">
-        <v>3429.703307528406</v>
+        <v>391.4985903251939</v>
       </c>
       <c r="X21" t="n">
-        <v>282.1886401318629</v>
+        <v>549.8774103092387</v>
       </c>
       <c r="Y21" t="n">
-        <v>426.4345441097377</v>
+        <v>32.91041158635367</v>
       </c>
       <c r="Z21" t="n">
-        <v>24.08671663316186</v>
+        <v>392.4110837777629</v>
       </c>
       <c r="AA21" t="n">
-        <v>300.7460778061848</v>
+        <v>50.33425032188384</v>
       </c>
       <c r="AB21" t="n">
-        <v>38.70564936700907</v>
+        <v>56283.99873023762</v>
       </c>
       <c r="AC21" t="n">
-        <v>36925.53766293207</v>
+        <v>1876.140342827221</v>
       </c>
       <c r="AD21" t="n">
-        <v>1876.140342827221</v>
+        <v>11544.46090980411</v>
       </c>
       <c r="AE21" t="n">
-        <v>7197.48525843748</v>
+        <v>4793.084248800602</v>
       </c>
       <c r="AF21" t="n">
-        <v>2979.959598972473</v>
+        <v>434.8635202719074</v>
       </c>
       <c r="AG21" t="n">
-        <v>272.5477672862648</v>
+        <v>1192.186000335975</v>
       </c>
       <c r="AH21" t="n">
-        <v>778.5357352197968</v>
+        <v>57.13648639674045</v>
       </c>
       <c r="AI21" t="n">
-        <v>40.58533556302807</v>
+        <v>5985.275764303662</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3758.49533419227</v>
+        <v>491.9999883351614</v>
       </c>
       <c r="AK21" t="n">
-        <v>313.1331028492929</v>
+        <v>712.724756562822</v>
       </c>
       <c r="AL21" t="n">
-        <v>456.117464528941</v>
+        <v>38.98659467888551</v>
       </c>
       <c r="AM21" t="n">
-        <v>25.41617854092863</v>
+        <v>466.3447275079391</v>
       </c>
       <c r="AN21" t="n">
-        <v>313.0845117608263</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>57.98693167130698</v>
+        <v>86.44330296857996</v>
       </c>
     </row>
     <row r="22">
@@ -3184,85 +3119,82 @@
         <v>165.8678514209188</v>
       </c>
       <c r="O22" t="n">
-        <v>341.9122030490775</v>
+        <v>49951.51857674198</v>
       </c>
       <c r="P22" t="n">
-        <v>39131.77732066226</v>
+        <v>1665.054382569678</v>
       </c>
       <c r="Q22" t="n">
-        <v>1665.054382569678</v>
+        <v>7893.487325892088</v>
       </c>
       <c r="R22" t="n">
-        <v>5912.387374979334</v>
+        <v>3405.927084488557</v>
       </c>
       <c r="S22" t="n">
-        <v>2296.062718128043</v>
+        <v>307.3292927359079</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7527136545865</v>
+        <v>1118.869733396053</v>
       </c>
       <c r="U22" t="n">
-        <v>773.4913027152343</v>
+        <v>53.97162258026682</v>
       </c>
       <c r="V22" t="n">
-        <v>37.3647299073609</v>
+        <v>4524.798616782437</v>
       </c>
       <c r="W22" t="n">
-        <v>3069.554020843278</v>
+        <v>361.2989927432576</v>
       </c>
       <c r="X22" t="n">
-        <v>258.1174435619474</v>
+        <v>536.4345837764197</v>
       </c>
       <c r="Y22" t="n">
-        <v>415.4129230000386</v>
+        <v>27.02054302904241</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.49879675482615</v>
+        <v>370.4711768052401</v>
       </c>
       <c r="AA22" t="n">
-        <v>290.2211605440291</v>
+        <v>57.33826184198589</v>
       </c>
       <c r="AB22" t="n">
-        <v>43.66016813580461</v>
+        <v>54370.84439488974</v>
       </c>
       <c r="AC22" t="n">
-        <v>35408.06345045461</v>
+        <v>1812.362117854497</v>
       </c>
       <c r="AD22" t="n">
-        <v>1812.362117854497</v>
+        <v>10848.2454095456</v>
       </c>
       <c r="AE22" t="n">
-        <v>6803.749758912645</v>
+        <v>4426.325625417723</v>
       </c>
       <c r="AF22" t="n">
-        <v>2765.342371808011</v>
+        <v>395.3301126130937</v>
       </c>
       <c r="AG22" t="n">
-        <v>248.74446385557</v>
+        <v>1074.970065093626</v>
       </c>
       <c r="AH22" t="n">
-        <v>705.3421591838312</v>
+        <v>54.73576913686511</v>
       </c>
       <c r="AI22" t="n">
-        <v>34.43182302849267</v>
+        <v>5501.2976001834</v>
       </c>
       <c r="AJ22" t="n">
-        <v>3470.684530991843</v>
+        <v>450.0712597694895</v>
       </c>
       <c r="AK22" t="n">
-        <v>283.1762868840627</v>
+        <v>650.7304896403035</v>
       </c>
       <c r="AL22" t="n">
-        <v>422.5971591922919</v>
+        <v>32.03148433535224</v>
       </c>
       <c r="AM22" t="n">
-        <v>20.37045893800324</v>
+        <v>448.1151696703066</v>
       </c>
       <c r="AN22" t="n">
-        <v>296.4041059814031</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>56.23198184570799</v>
+        <v>86.48576446037092</v>
       </c>
     </row>
     <row r="23">
@@ -3309,85 +3241,82 @@
         <v>162.35901406662</v>
       </c>
       <c r="O23" t="n">
-        <v>362.4261194461274</v>
+        <v>54606.16231964264</v>
       </c>
       <c r="P23" t="n">
-        <v>39585.17543095032</v>
+        <v>1820.199559142252</v>
       </c>
       <c r="Q23" t="n">
-        <v>1820.199559142252</v>
+        <v>9476.953481981298</v>
       </c>
       <c r="R23" t="n">
-        <v>6529.75991071366</v>
+        <v>3860.860802049727</v>
       </c>
       <c r="S23" t="n">
-        <v>2571.277191962716</v>
+        <v>327.2986729416992</v>
       </c>
       <c r="T23" t="n">
-        <v>230.0935084160263</v>
+        <v>1231.8882132452</v>
       </c>
       <c r="U23" t="n">
-        <v>861.6941776330459</v>
+        <v>61.31680311592055</v>
       </c>
       <c r="V23" t="n">
-        <v>44.08430377702611</v>
+        <v>5092.765640340587</v>
       </c>
       <c r="W23" t="n">
-        <v>3432.971369595762</v>
+        <v>388.6173936470345</v>
       </c>
       <c r="X23" t="n">
-        <v>274.1778121930524</v>
+        <v>548.9690062713074</v>
       </c>
       <c r="Y23" t="n">
-        <v>393.7191629184462</v>
+        <v>35.64001137423759</v>
       </c>
       <c r="Z23" t="n">
-        <v>22.24095530153857</v>
+        <v>371.4646931925896</v>
       </c>
       <c r="AA23" t="n">
-        <v>270.6336686529315</v>
+        <v>69.93802084394875</v>
       </c>
       <c r="AB23" t="n">
-        <v>44.83842330794961</v>
+        <v>55847.45574208574</v>
       </c>
       <c r="AC23" t="n">
-        <v>32180.76596055291</v>
+        <v>1861.582540952634</v>
       </c>
       <c r="AD23" t="n">
-        <v>1861.582540952634</v>
+        <v>11547.439345357</v>
       </c>
       <c r="AE23" t="n">
-        <v>6645.936453120451</v>
+        <v>5031.5143465956</v>
       </c>
       <c r="AF23" t="n">
-        <v>2785.484045641591</v>
+        <v>447.7401433528048</v>
       </c>
       <c r="AG23" t="n">
-        <v>246.0297991339821</v>
+        <v>1442.341669862394</v>
       </c>
       <c r="AH23" t="n">
-        <v>741.0954570050325</v>
+        <v>74.15170330439943</v>
       </c>
       <c r="AI23" t="n">
-        <v>39.53861675162739</v>
+        <v>6473.86328640919</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3526.579502646623</v>
+        <v>521.88807175535</v>
       </c>
       <c r="AK23" t="n">
-        <v>285.5684158856095</v>
+        <v>643.6331501927823</v>
       </c>
       <c r="AL23" t="n">
-        <v>366.3923020002049</v>
+        <v>35.18436912480335</v>
       </c>
       <c r="AM23" t="n">
-        <v>18.92813914879046</v>
+        <v>421.674795198384</v>
       </c>
       <c r="AN23" t="n">
-        <v>251.7743613631735</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>47.79105888574981</v>
+        <v>85.60100280696145</v>
       </c>
     </row>
     <row r="24">
@@ -3434,85 +3363,82 @@
         <v>150.2207709416392</v>
       </c>
       <c r="O24" t="n">
-        <v>355.2829684254023</v>
+        <v>54277.50247865448</v>
       </c>
       <c r="P24" t="n">
-        <v>38742.07737688739</v>
+        <v>1809.24889276986</v>
       </c>
       <c r="Q24" t="n">
-        <v>1809.24889276986</v>
+        <v>9361.015126032205</v>
       </c>
       <c r="R24" t="n">
-        <v>6473.971576613148</v>
+        <v>3807.473878031286</v>
       </c>
       <c r="S24" t="n">
-        <v>2528.05552141761</v>
+        <v>358.2257931291044</v>
       </c>
       <c r="T24" t="n">
-        <v>236.5920133435728</v>
+        <v>1237.111058143339</v>
       </c>
       <c r="U24" t="n">
-        <v>833.4885831317985</v>
+        <v>64.3101806383258</v>
       </c>
       <c r="V24" t="n">
-        <v>43.45635501236821</v>
+        <v>5044.592239925578</v>
       </c>
       <c r="W24" t="n">
-        <v>3361.544104549409</v>
+        <v>422.5431842262145</v>
       </c>
       <c r="X24" t="n">
-        <v>280.048368355941</v>
+        <v>550.0750593617606</v>
       </c>
       <c r="Y24" t="n">
-        <v>382.9298551839719</v>
+        <v>34.47252813009533</v>
       </c>
       <c r="Z24" t="n">
-        <v>22.34950887040147</v>
+        <v>391.3453073736961</v>
       </c>
       <c r="AA24" t="n">
-        <v>274.8828950700408</v>
+        <v>62.4500665570886</v>
       </c>
       <c r="AB24" t="n">
-        <v>40.18004571540499</v>
+        <v>58316.41864344998</v>
       </c>
       <c r="AC24" t="n">
-        <v>35477.54333402677</v>
+        <v>1943.882904241609</v>
       </c>
       <c r="AD24" t="n">
-        <v>1943.882904241609</v>
+        <v>12260.9172846277</v>
       </c>
       <c r="AE24" t="n">
-        <v>7252.069092421947</v>
+        <v>4816.622508112947</v>
       </c>
       <c r="AF24" t="n">
-        <v>2790.515854980636</v>
+        <v>423.9792740336183</v>
       </c>
       <c r="AG24" t="n">
-        <v>245.3034407836532</v>
+        <v>1302.188328626257</v>
       </c>
       <c r="AH24" t="n">
-        <v>727.4338209070597</v>
+        <v>61.12910293677758</v>
       </c>
       <c r="AI24" t="n">
-        <v>35.61359511701645</v>
+        <v>6118.796337463253</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3517.949675887696</v>
+        <v>485.1194413347506</v>
       </c>
       <c r="AK24" t="n">
-        <v>280.9170359006697</v>
+        <v>654.0919195214088</v>
       </c>
       <c r="AL24" t="n">
-        <v>399.7401703371199</v>
+        <v>29.99636651958969</v>
       </c>
       <c r="AM24" t="n">
-        <v>19.45818594735038</v>
+        <v>484.813682452925</v>
       </c>
       <c r="AN24" t="n">
-        <v>297.4314930756215</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>48.04878033809482</v>
+        <v>81.18526359065083</v>
       </c>
     </row>
     <row r="25">
@@ -3559,85 +3485,82 @@
         <v>159.8636215659641</v>
       </c>
       <c r="O25" t="n">
-        <v>380.3207037602429</v>
+        <v>55205.63607641905</v>
       </c>
       <c r="P25" t="n">
-        <v>35758.19751361156</v>
+        <v>1840.181901860144</v>
       </c>
       <c r="Q25" t="n">
-        <v>1840.181901860144</v>
+        <v>9379.303089111714</v>
       </c>
       <c r="R25" t="n">
-        <v>5697.841771890142</v>
+        <v>4046.183945985103</v>
       </c>
       <c r="S25" t="n">
-        <v>2293.982272111035</v>
+        <v>365.0972644626833</v>
       </c>
       <c r="T25" t="n">
-        <v>206.3300575009297</v>
+        <v>1603.007725950768</v>
       </c>
       <c r="U25" t="n">
-        <v>847.1145247730752</v>
+        <v>74.59286502505181</v>
       </c>
       <c r="V25" t="n">
-        <v>39.65206150801372</v>
+        <v>5649.183907618103</v>
       </c>
       <c r="W25" t="n">
-        <v>3141.09679688411</v>
+        <v>439.6826082720357</v>
       </c>
       <c r="X25" t="n">
-        <v>245.9821190089435</v>
+        <v>551.801001899654</v>
       </c>
       <c r="Y25" t="n">
-        <v>361.4487408258445</v>
+        <v>34.77038853998945</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.56601024329865</v>
+        <v>379.9747531250438</v>
       </c>
       <c r="AA25" t="n">
-        <v>253.4188097845328</v>
+        <v>71.47287288905594</v>
       </c>
       <c r="AB25" t="n">
-        <v>41.04275558816855</v>
+        <v>59305.15218956807</v>
       </c>
       <c r="AC25" t="n">
-        <v>38075.97380862776</v>
+        <v>1976.842627682803</v>
       </c>
       <c r="AD25" t="n">
-        <v>1976.842627682803</v>
+        <v>11487.94284776128</v>
       </c>
       <c r="AE25" t="n">
-        <v>7167.790980366035</v>
+        <v>4980.648496669155</v>
       </c>
       <c r="AF25" t="n">
-        <v>3009.460106779257</v>
+        <v>434.8213459140078</v>
       </c>
       <c r="AG25" t="n">
-        <v>270.6908082922154</v>
+        <v>1593.283560958495</v>
       </c>
       <c r="AH25" t="n">
-        <v>912.5171886970056</v>
+        <v>64.7763240707301</v>
       </c>
       <c r="AI25" t="n">
-        <v>39.5689948803744</v>
+        <v>6573.931925052253</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3921.977295476263</v>
+        <v>499.6012435840881</v>
       </c>
       <c r="AK25" t="n">
-        <v>310.2598031725898</v>
+        <v>642.9513066101349</v>
       </c>
       <c r="AL25" t="n">
-        <v>419.9946857682072</v>
+        <v>29.29384007336821</v>
       </c>
       <c r="AM25" t="n">
-        <v>20.16079514145457</v>
+        <v>479.7859355282761</v>
       </c>
       <c r="AN25" t="n">
-        <v>319.2399581638924</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>52.89793154327435</v>
+        <v>85.36390220526511</v>
       </c>
     </row>
     <row r="26">
@@ -3684,85 +3607,82 @@
         <v>167.3264929165077</v>
       </c>
       <c r="O26" t="n">
-        <v>370.73871220955</v>
+        <v>56172.20220856987</v>
       </c>
       <c r="P26" t="n">
-        <v>36554.94082243944</v>
+        <v>1872.405451556151</v>
       </c>
       <c r="Q26" t="n">
-        <v>1872.405451556151</v>
+        <v>9481.368156324628</v>
       </c>
       <c r="R26" t="n">
-        <v>5854.205848545517</v>
+        <v>4212.452452371009</v>
       </c>
       <c r="S26" t="n">
-        <v>2353.481738662204</v>
+        <v>384.7581181836569</v>
       </c>
       <c r="T26" t="n">
-        <v>225.9066368294701</v>
+        <v>1334.53584928662</v>
       </c>
       <c r="U26" t="n">
-        <v>777.4642493008075</v>
+        <v>71.47730090232044</v>
       </c>
       <c r="V26" t="n">
-        <v>42.30607903247912</v>
+        <v>5546.990265029341</v>
       </c>
       <c r="W26" t="n">
-        <v>3130.945987963012</v>
+        <v>456.2374232064182</v>
       </c>
       <c r="X26" t="n">
-        <v>268.2127158619492</v>
+        <v>583.0604736283271</v>
       </c>
       <c r="Y26" t="n">
-        <v>367.2215426742107</v>
+        <v>32.71860789218547</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.81705185044824</v>
+        <v>395.6926679168814</v>
       </c>
       <c r="AA26" t="n">
-        <v>259.7864930224716</v>
+        <v>71.12819305710255</v>
       </c>
       <c r="AB26" t="n">
-        <v>42.74569396998563</v>
+        <v>59934.24990626443</v>
       </c>
       <c r="AC26" t="n">
-        <v>36485.2909802745</v>
+        <v>1997.811207658446</v>
       </c>
       <c r="AD26" t="n">
-        <v>1997.811207658446</v>
+        <v>12088.39735960113</v>
       </c>
       <c r="AE26" t="n">
-        <v>7012.291082123711</v>
+        <v>4946.25964644239</v>
       </c>
       <c r="AF26" t="n">
-        <v>2901.725670048304</v>
+        <v>446.3545876113736</v>
       </c>
       <c r="AG26" t="n">
-        <v>264.9824482678525</v>
+        <v>1476.722646883863</v>
       </c>
       <c r="AH26" t="n">
-        <v>865.3018733177029</v>
+        <v>69.65371877803275</v>
       </c>
       <c r="AI26" t="n">
-        <v>39.86718226066967</v>
+        <v>6422.986100461058</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3767.027543366006</v>
+        <v>516.010061528402</v>
       </c>
       <c r="AK26" t="n">
-        <v>304.8496305285222</v>
+        <v>723.3530317082146</v>
       </c>
       <c r="AL26" t="n">
-        <v>436.4417923324282</v>
+        <v>33.66827336543516</v>
       </c>
       <c r="AM26" t="n">
-        <v>22.44066724003296</v>
+        <v>477.9374781951339</v>
       </c>
       <c r="AN26" t="n">
-        <v>303.5988602653366</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>58.10014292060934</v>
+        <v>100.1043667677923</v>
       </c>
     </row>
     <row r="27">
@@ -3809,85 +3729,82 @@
         <v>170.1054125647605</v>
       </c>
       <c r="O27" t="n">
-        <v>371.2418514828916</v>
+        <v>52402.51595703141</v>
       </c>
       <c r="P27" t="n">
-        <v>39605.66578793998</v>
+        <v>1746.750736339565</v>
       </c>
       <c r="Q27" t="n">
-        <v>1746.750736339565</v>
+        <v>8943.109903010505</v>
       </c>
       <c r="R27" t="n">
-        <v>6473.548632551577</v>
+        <v>3810.295812405928</v>
       </c>
       <c r="S27" t="n">
-        <v>2626.979184950855</v>
+        <v>342.9139415675342</v>
       </c>
       <c r="T27" t="n">
-        <v>242.8878459345678</v>
+        <v>1455.730906112968</v>
       </c>
       <c r="U27" t="n">
-        <v>1009.177890830835</v>
+        <v>66.94644832151758</v>
       </c>
       <c r="V27" t="n">
-        <v>50.23248726075045</v>
+        <v>5266.021044588331</v>
       </c>
       <c r="W27" t="n">
-        <v>3636.15707578169</v>
+        <v>409.8623997304168</v>
       </c>
       <c r="X27" t="n">
-        <v>293.1203331953182</v>
+        <v>560.4895261726176</v>
       </c>
       <c r="Y27" t="n">
-        <v>422.5023811544932</v>
+        <v>29.06958724574456</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.14183123962785</v>
+        <v>379.048301880828</v>
       </c>
       <c r="AA27" t="n">
-        <v>298.1734280265711</v>
+        <v>61.21203479006247</v>
       </c>
       <c r="AB27" t="n">
-        <v>43.86915414007255</v>
+        <v>56383.9560678245</v>
       </c>
       <c r="AC27" t="n">
-        <v>37969.34478249135</v>
+        <v>1879.461930279773</v>
       </c>
       <c r="AD27" t="n">
-        <v>1879.461930279773</v>
+        <v>11493.24229532758</v>
       </c>
       <c r="AE27" t="n">
-        <v>7567.666270865385</v>
+        <v>4731.332195511075</v>
       </c>
       <c r="AF27" t="n">
-        <v>3104.498655695224</v>
+        <v>428.1715857191231</v>
       </c>
       <c r="AG27" t="n">
-        <v>278.065894221442</v>
+        <v>1375.939754257863</v>
       </c>
       <c r="AH27" t="n">
-        <v>877.4952738445027</v>
+        <v>64.50010745197413</v>
       </c>
       <c r="AI27" t="n">
-        <v>43.3793916767421</v>
+        <v>6107.271984203862</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3981.993929539727</v>
+        <v>492.6678680343554</v>
       </c>
       <c r="AK27" t="n">
-        <v>321.4452858981841</v>
+        <v>648.475245271996</v>
       </c>
       <c r="AL27" t="n">
-        <v>433.9176859255635</v>
+        <v>33.73523124460553</v>
       </c>
       <c r="AM27" t="n">
-        <v>23.63180848255752</v>
+        <v>441.9428795867045</v>
       </c>
       <c r="AN27" t="n">
-        <v>301.1299277077991</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>60.7037751592472</v>
+        <v>92.86839699701889</v>
       </c>
     </row>
     <row r="28">
@@ -3934,85 +3851,82 @@
         <v>160.1481930709678</v>
       </c>
       <c r="O28" t="n">
-        <v>338.187122947628</v>
+        <v>47143.11431026457</v>
       </c>
       <c r="P28" t="n">
-        <v>34125.78693268535</v>
+        <v>1571.436780717281</v>
       </c>
       <c r="Q28" t="n">
-        <v>1571.436780717281</v>
+        <v>8262.808648751667</v>
       </c>
       <c r="R28" t="n">
-        <v>5808.752529690531</v>
+        <v>3484.753508472316</v>
       </c>
       <c r="S28" t="n">
-        <v>2403.50990473971</v>
+        <v>324.6809441394257</v>
       </c>
       <c r="T28" t="n">
-        <v>221.4593156437334</v>
+        <v>1286.806362984346</v>
       </c>
       <c r="U28" t="n">
-        <v>805.3473855728739</v>
+        <v>59.28041959303003</v>
       </c>
       <c r="V28" t="n">
-        <v>42.01913038673237</v>
+        <v>4771.563099297977</v>
       </c>
       <c r="W28" t="n">
-        <v>3208.857290312584</v>
+        <v>383.9592510317561</v>
       </c>
       <c r="X28" t="n">
-        <v>263.4784460304658</v>
+        <v>483.8387283357959</v>
       </c>
       <c r="Y28" t="n">
-        <v>338.4537322974344</v>
+        <v>29.13838623516839</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.64411833280704</v>
+        <v>332.8864265656954</v>
       </c>
       <c r="AA28" t="n">
-        <v>241.1968304611692</v>
+        <v>53.41745272993408</v>
       </c>
       <c r="AB28" t="n">
-        <v>38.45550431122768</v>
+        <v>54478.83403647969</v>
       </c>
       <c r="AC28" t="n">
-        <v>35851.71749813772</v>
+        <v>1815.959206166892</v>
       </c>
       <c r="AD28" t="n">
-        <v>1815.959206166892</v>
+        <v>10737.37914979839</v>
       </c>
       <c r="AE28" t="n">
-        <v>6969.540121410808</v>
+        <v>4721.887483242991</v>
       </c>
       <c r="AF28" t="n">
-        <v>2874.428221062556</v>
+        <v>406.7953395945493</v>
       </c>
       <c r="AG28" t="n">
-        <v>251.3079289156102</v>
+        <v>1226.495541957437</v>
       </c>
       <c r="AH28" t="n">
-        <v>695.5128929075142</v>
+        <v>65.90309547131423</v>
       </c>
       <c r="AI28" t="n">
-        <v>38.49305843518469</v>
+        <v>5948.366645997941</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3569.94111397007</v>
+        <v>472.698682870893</v>
       </c>
       <c r="AK28" t="n">
-        <v>289.8009873507949</v>
+        <v>599.9678535366638</v>
       </c>
       <c r="AL28" t="n">
-        <v>394.8980789135757</v>
+        <v>35.38817205290358</v>
       </c>
       <c r="AM28" t="n">
-        <v>21.10783030459701</v>
+        <v>424.7686300908995</v>
       </c>
       <c r="AN28" t="n">
-        <v>289.3270884817548</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>48.56311301038577</v>
+        <v>85.52869722820921</v>
       </c>
     </row>
     <row r="29">
@@ -4059,85 +3973,82 @@
         <v>168.9552039716111</v>
       </c>
       <c r="O29" t="n">
-        <v>369.8470598910743</v>
+        <v>55519.33616822118</v>
       </c>
       <c r="P29" t="n">
-        <v>34463.43525432954</v>
+        <v>1850.647948846941</v>
       </c>
       <c r="Q29" t="n">
-        <v>1850.647948846941</v>
+        <v>10010.05355651899</v>
       </c>
       <c r="R29" t="n">
-        <v>5804.195473279825</v>
+        <v>4247.374735743791</v>
       </c>
       <c r="S29" t="n">
-        <v>2334.010498397306</v>
+        <v>406.1639378927419</v>
       </c>
       <c r="T29" t="n">
-        <v>227.2543908691653</v>
+        <v>1592.783896462365</v>
       </c>
       <c r="U29" t="n">
-        <v>847.8418544678716</v>
+        <v>76.68771017397651</v>
       </c>
       <c r="V29" t="n">
-        <v>43.96624887630283</v>
+        <v>5840.156722672589</v>
       </c>
       <c r="W29" t="n">
-        <v>3181.852352865177</v>
+        <v>482.8500301075272</v>
       </c>
       <c r="X29" t="n">
-        <v>271.2206397454681</v>
+        <v>584.6613104807292</v>
       </c>
       <c r="Y29" t="n">
-        <v>349.5475546509832</v>
+        <v>41.25385318926924</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.19279057322107</v>
+        <v>391.4236196082642</v>
       </c>
       <c r="AA29" t="n">
-        <v>240.1831706055393</v>
+        <v>73.09424974536857</v>
       </c>
       <c r="AB29" t="n">
-        <v>40.88030110078063</v>
+        <v>60365.16502992306</v>
       </c>
       <c r="AC29" t="n">
-        <v>35058.91824977968</v>
+        <v>2012.178568422499</v>
       </c>
       <c r="AD29" t="n">
-        <v>2012.178568422499</v>
+        <v>13184.23581948341</v>
       </c>
       <c r="AE29" t="n">
-        <v>7304.851154529611</v>
+        <v>5634.701837505241</v>
       </c>
       <c r="AF29" t="n">
-        <v>3147.859020573072</v>
+        <v>495.6632017309339</v>
       </c>
       <c r="AG29" t="n">
-        <v>281.3758817217582</v>
+        <v>1514.879870358963</v>
       </c>
       <c r="AH29" t="n">
-        <v>895.7683750760021</v>
+        <v>75.49468367871373</v>
       </c>
       <c r="AI29" t="n">
-        <v>44.2451140948021</v>
+        <v>7149.589107871883</v>
       </c>
       <c r="AJ29" t="n">
-        <v>4043.627395649074</v>
+        <v>571.1616318755712</v>
       </c>
       <c r="AK29" t="n">
-        <v>325.6209958165603</v>
+        <v>651.2862710433831</v>
       </c>
       <c r="AL29" t="n">
-        <v>397.4236299109853</v>
+        <v>40.64627196634629</v>
       </c>
       <c r="AM29" t="n">
-        <v>21.07984456386096</v>
+        <v>451.1923354489408</v>
       </c>
       <c r="AN29" t="n">
-        <v>279.0137707453436</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>47.20928056693744</v>
+        <v>85.10205994095045</v>
       </c>
     </row>
     <row r="30">
@@ -4184,85 +4095,82 @@
         <v>153.7196989959337</v>
       </c>
       <c r="O30" t="n">
-        <v>378.2603312776374</v>
+        <v>54462.86395139153</v>
       </c>
       <c r="P30" t="n">
-        <v>37240.51907607348</v>
+        <v>1815.433815140116</v>
       </c>
       <c r="Q30" t="n">
-        <v>1815.433815140116</v>
+        <v>9312.786857348667</v>
       </c>
       <c r="R30" t="n">
-        <v>6068.408564174762</v>
+        <v>3934.801213469397</v>
       </c>
       <c r="S30" t="n">
-        <v>2500.160953388372</v>
+        <v>366.7933372420588</v>
       </c>
       <c r="T30" t="n">
-        <v>233.7927925230786</v>
+        <v>1541.408471163765</v>
       </c>
       <c r="U30" t="n">
-        <v>863.4310211928048</v>
+        <v>75.09790435504812</v>
       </c>
       <c r="V30" t="n">
-        <v>45.40580358417597</v>
+        <v>5476.218933148677</v>
       </c>
       <c r="W30" t="n">
-        <v>3363.591974581177</v>
+        <v>441.8912871248852</v>
       </c>
       <c r="X30" t="n">
-        <v>279.1985961072546</v>
+        <v>598.9558243300903</v>
       </c>
       <c r="Y30" t="n">
-        <v>406.2680991509201</v>
+        <v>31.57956228355796</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.46474577510054</v>
+        <v>408.4252120023896</v>
       </c>
       <c r="AA30" t="n">
-        <v>283.3182359309812</v>
+        <v>59.25826266713961</v>
       </c>
       <c r="AB30" t="n">
-        <v>39.73539417637648</v>
+        <v>60639.31296869282</v>
       </c>
       <c r="AC30" t="n">
-        <v>34224.72245542026</v>
+        <v>2021.311045493454</v>
       </c>
       <c r="AD30" t="n">
-        <v>2021.311045493454</v>
+        <v>12828.41229015415</v>
       </c>
       <c r="AE30" t="n">
-        <v>6964.303956635532</v>
+        <v>5441.983046470466</v>
       </c>
       <c r="AF30" t="n">
-        <v>2895.507041297614</v>
+        <v>476.3435195208817</v>
       </c>
       <c r="AG30" t="n">
-        <v>257.6894576865511</v>
+        <v>1243.25217471874</v>
       </c>
       <c r="AH30" t="n">
-        <v>686.2815015619595</v>
+        <v>71.0892601488078</v>
       </c>
       <c r="AI30" t="n">
-        <v>38.74499480972179</v>
+        <v>6685.237584464639</v>
       </c>
       <c r="AJ30" t="n">
-        <v>3581.788542859574</v>
+        <v>547.435036765769</v>
       </c>
       <c r="AK30" t="n">
-        <v>296.4344524962729</v>
+        <v>683.4340793135528</v>
       </c>
       <c r="AL30" t="n">
-        <v>394.9073192465606</v>
+        <v>37.2646914067612</v>
       </c>
       <c r="AM30" t="n">
-        <v>20.47674811686748</v>
+        <v>465.7543795982548</v>
       </c>
       <c r="AN30" t="n">
-        <v>273.6227085688801</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>46.93501452929924</v>
+        <v>85.32068055562091</v>
       </c>
     </row>
     <row r="31">
@@ -4309,85 +4217,82 @@
         <v>158.0885743420346</v>
       </c>
       <c r="O31" t="n">
-        <v>370.3233586274449</v>
+        <v>54548.11258914341</v>
       </c>
       <c r="P31" t="n">
-        <v>32825.71149214638</v>
+        <v>1818.265318742624</v>
       </c>
       <c r="Q31" t="n">
-        <v>1818.265318742624</v>
+        <v>9096.313337098209</v>
       </c>
       <c r="R31" t="n">
-        <v>5371.931578686768</v>
+        <v>3990.46708979954</v>
       </c>
       <c r="S31" t="n">
-        <v>2236.265180916339</v>
+        <v>375.5238965684156</v>
       </c>
       <c r="T31" t="n">
-        <v>208.9747859536917</v>
+        <v>1407.548243890182</v>
       </c>
       <c r="U31" t="n">
-        <v>736.1724195431387</v>
+        <v>72.15484978591044</v>
       </c>
       <c r="V31" t="n">
-        <v>39.30977636491139</v>
+        <v>5398.015569247586</v>
       </c>
       <c r="W31" t="n">
-        <v>2972.437600459477</v>
+        <v>447.6769365121096</v>
       </c>
       <c r="X31" t="n">
-        <v>248.284562318603</v>
+        <v>531.6305892334594</v>
       </c>
       <c r="Y31" t="n">
-        <v>328.2880208211952</v>
+        <v>38.17252634137007</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.69430582163369</v>
+        <v>382.0542109592208</v>
       </c>
       <c r="AA31" t="n">
-        <v>232.1521870727066</v>
+        <v>67.62404515621105</v>
       </c>
       <c r="AB31" t="n">
-        <v>37.87269256843105</v>
+        <v>60547.88865052346</v>
       </c>
       <c r="AC31" t="n">
-        <v>38514.80057050208</v>
+        <v>2018.268563591699</v>
       </c>
       <c r="AD31" t="n">
-        <v>2018.268563591699</v>
+        <v>12533.24882547289</v>
       </c>
       <c r="AE31" t="n">
-        <v>7741.345862476004</v>
+        <v>5130.140157427775</v>
       </c>
       <c r="AF31" t="n">
-        <v>3161.186755546261</v>
+        <v>444.8634845469838</v>
       </c>
       <c r="AG31" t="n">
-        <v>279.2581817657841</v>
+        <v>1142.238682367991</v>
       </c>
       <c r="AH31" t="n">
-        <v>693.1288067924706</v>
+        <v>63.47225349571423</v>
       </c>
       <c r="AI31" t="n">
-        <v>39.40258034264039</v>
+        <v>6272.37699619444</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3854.315562338732</v>
+        <v>508.3302838224478</v>
       </c>
       <c r="AK31" t="n">
-        <v>318.6607621084245</v>
+        <v>671.5298110052172</v>
       </c>
       <c r="AL31" t="n">
-        <v>430.5121124254518</v>
+        <v>30.95293002395171</v>
       </c>
       <c r="AM31" t="n">
-        <v>19.16646610826729</v>
+        <v>482.0910954090239</v>
       </c>
       <c r="AN31" t="n">
-        <v>314.4208409309394</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>50.1518310760458</v>
+        <v>81.43870048588015</v>
       </c>
     </row>
     <row r="32">
@@ -4434,85 +4339,82 @@
         <v>155.3252629509832</v>
       </c>
       <c r="O32" t="n">
-        <v>385.7948420045033</v>
+        <v>55147.25761145617</v>
       </c>
       <c r="P32" t="n">
-        <v>39004.47757365539</v>
+        <v>1838.24207486202</v>
       </c>
       <c r="Q32" t="n">
-        <v>1838.24207486202</v>
+        <v>8834.758929118274</v>
       </c>
       <c r="R32" t="n">
-        <v>5921.900655629646</v>
+        <v>3731.927759870526</v>
       </c>
       <c r="S32" t="n">
-        <v>2250.880985973027</v>
+        <v>346.4275203412367</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4408369038073</v>
+        <v>1610.977432563061</v>
       </c>
       <c r="U32" t="n">
-        <v>824.7901803982775</v>
+        <v>70.9918213723406</v>
       </c>
       <c r="V32" t="n">
-        <v>41.68077886777474</v>
+        <v>5342.892086555948</v>
       </c>
       <c r="W32" t="n">
-        <v>3075.671166371304</v>
+        <v>417.410316096834</v>
       </c>
       <c r="X32" t="n">
-        <v>250.1216157715821</v>
+        <v>574.1605377928829</v>
       </c>
       <c r="Y32" t="n">
-        <v>378.9410762938444</v>
+        <v>25.44101048256498</v>
       </c>
       <c r="Z32" t="n">
-        <v>17.05962528751412</v>
+        <v>400.157946134017</v>
       </c>
       <c r="AA32" t="n">
-        <v>279.234141153127</v>
+        <v>59.02867728138811</v>
       </c>
       <c r="AB32" t="n">
-        <v>38.35045000209844</v>
+        <v>62657.11997669564</v>
       </c>
       <c r="AC32" t="n">
-        <v>32730.17811863143</v>
+        <v>2088.57286442518</v>
       </c>
       <c r="AD32" t="n">
-        <v>2088.57286442518</v>
+        <v>13361.76304513864</v>
       </c>
       <c r="AE32" t="n">
-        <v>6628.762843303532</v>
+        <v>5607.860901040556</v>
       </c>
       <c r="AF32" t="n">
-        <v>2745.548042415565</v>
+        <v>471.2074322994866</v>
       </c>
       <c r="AG32" t="n">
-        <v>237.466163059244</v>
+        <v>1417.40530416471</v>
       </c>
       <c r="AH32" t="n">
-        <v>692.6942141555056</v>
+        <v>70.97925887938472</v>
       </c>
       <c r="AI32" t="n">
-        <v>35.70766450990859</v>
+        <v>7025.264083403081</v>
       </c>
       <c r="AJ32" t="n">
-        <v>3438.242256571071</v>
+        <v>542.1791681759114</v>
       </c>
       <c r="AK32" t="n">
-        <v>273.1738275691526</v>
+        <v>698.6946280007215</v>
       </c>
       <c r="AL32" t="n">
-        <v>367.1179759030767</v>
+        <v>36.7163139588835</v>
       </c>
       <c r="AM32" t="n">
-        <v>17.7016483207668</v>
+        <v>485.2081920973916</v>
       </c>
       <c r="AN32" t="n">
-        <v>255.473248338698</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>46.02782489430938</v>
+        <v>93.7550999023487</v>
       </c>
     </row>
     <row r="33">
@@ -4559,85 +4461,82 @@
         <v>150.2089291124248</v>
       </c>
       <c r="O33" t="n">
-        <v>360.484239350828</v>
+        <v>50373.73809915793</v>
       </c>
       <c r="P33" t="n">
-        <v>37765.61659669923</v>
+        <v>1679.126594168977</v>
       </c>
       <c r="Q33" t="n">
-        <v>1679.126594168977</v>
+        <v>8262.932187283648</v>
       </c>
       <c r="R33" t="n">
-        <v>5926.596052673133</v>
+        <v>3353.140227589896</v>
       </c>
       <c r="S33" t="n">
-        <v>2351.069134877805</v>
+        <v>312.9358950990449</v>
       </c>
       <c r="T33" t="n">
-        <v>219.3571465105247</v>
+        <v>1150.602757955081</v>
       </c>
       <c r="U33" t="n">
-        <v>759.621102790401</v>
+        <v>54.70830005293142</v>
       </c>
       <c r="V33" t="n">
-        <v>39.93024262915088</v>
+        <v>4503.742648652436</v>
       </c>
       <c r="W33" t="n">
-        <v>3110.690237668206</v>
+        <v>367.6461255291603</v>
       </c>
       <c r="X33" t="n">
-        <v>259.2873891396756</v>
+        <v>507.6427296117137</v>
       </c>
       <c r="Y33" t="n">
-        <v>379.8683837757984</v>
+        <v>27.23819152966926</v>
       </c>
       <c r="Z33" t="n">
-        <v>20.47211500348325</v>
+        <v>364.7627006603933</v>
       </c>
       <c r="AA33" t="n">
-        <v>276.2981495111847</v>
+        <v>55.6323896353942</v>
       </c>
       <c r="AB33" t="n">
-        <v>38.94106721080425</v>
+        <v>54322.91693324719</v>
       </c>
       <c r="AC33" t="n">
-        <v>33118.36441406804</v>
+        <v>1810.766496329087</v>
       </c>
       <c r="AD33" t="n">
-        <v>1810.766496329087</v>
+        <v>10605.38940617935</v>
       </c>
       <c r="AE33" t="n">
-        <v>6335.929214427951</v>
+        <v>4532.418658671833</v>
       </c>
       <c r="AF33" t="n">
-        <v>2700.611643828933</v>
+        <v>395.4693948667206</v>
       </c>
       <c r="AG33" t="n">
-        <v>238.121260651866</v>
+        <v>1430.532777055023</v>
       </c>
       <c r="AH33" t="n">
-        <v>805.4287866682747</v>
+        <v>60.13235170282862</v>
       </c>
       <c r="AI33" t="n">
-        <v>37.74969423924701</v>
+        <v>5962.953004678011</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3506.040430497208</v>
+        <v>455.6071301486634</v>
       </c>
       <c r="AK33" t="n">
-        <v>275.870954891113</v>
+        <v>593.7132350633841</v>
       </c>
       <c r="AL33" t="n">
-        <v>367.9607563125249</v>
+        <v>27.09106991867963</v>
       </c>
       <c r="AM33" t="n">
-        <v>17.1526095284171</v>
+        <v>410.4593423914351</v>
       </c>
       <c r="AN33" t="n">
-        <v>260.3698682557286</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>45.6872672214109</v>
+        <v>76.94668346471231</v>
       </c>
     </row>
     <row r="34">
@@ -4684,85 +4583,82 @@
         <v>160.5388101020035</v>
       </c>
       <c r="O34" t="n">
-        <v>384.3834786793386</v>
+        <v>55580.49460047831</v>
       </c>
       <c r="P34" t="n">
-        <v>39478.68748622293</v>
+        <v>1852.677883774196</v>
       </c>
       <c r="Q34" t="n">
-        <v>1852.677883774196</v>
+        <v>9354.211103563623</v>
       </c>
       <c r="R34" t="n">
-        <v>6165.557571000552</v>
+        <v>4007.624708337858</v>
       </c>
       <c r="S34" t="n">
-        <v>2431.873782889303</v>
+        <v>389.2327956908149</v>
       </c>
       <c r="T34" t="n">
-        <v>230.8549438100112</v>
+        <v>1433.119797045757</v>
       </c>
       <c r="U34" t="n">
-        <v>786.6767896477187</v>
+        <v>78.37267412571234</v>
       </c>
       <c r="V34" t="n">
-        <v>42.774235949539</v>
+        <v>5440.744886479122</v>
       </c>
       <c r="W34" t="n">
-        <v>3218.550572537021</v>
+        <v>467.6035796725592</v>
       </c>
       <c r="X34" t="n">
-        <v>273.6291797595503</v>
+        <v>535.0940432784628</v>
       </c>
       <c r="Y34" t="n">
-        <v>377.0963340316063</v>
+        <v>35.02628365010295</v>
       </c>
       <c r="Z34" t="n">
-        <v>22.08978826350882</v>
+        <v>385.1915993316906</v>
       </c>
       <c r="AA34" t="n">
-        <v>281.9651538608446</v>
+        <v>66.01543907035088</v>
       </c>
       <c r="AB34" t="n">
-        <v>41.26840230905919</v>
+        <v>61873.54983344366</v>
       </c>
       <c r="AC34" t="n">
-        <v>37976.96712235941</v>
+        <v>2062.453945969343</v>
       </c>
       <c r="AD34" t="n">
-        <v>2062.453945969343</v>
+        <v>12713.71396317573</v>
       </c>
       <c r="AE34" t="n">
-        <v>7573.03467103124</v>
+        <v>5190.125231780644</v>
       </c>
       <c r="AF34" t="n">
-        <v>3060.030704196067</v>
+        <v>456.3009328108909</v>
       </c>
       <c r="AG34" t="n">
-        <v>265.955445085177</v>
+        <v>1219.257220401902</v>
       </c>
       <c r="AH34" t="n">
-        <v>688.8516692926129</v>
+        <v>63.75135163995511</v>
       </c>
       <c r="AI34" t="n">
-        <v>37.2534243123371</v>
+        <v>6409.3822175557</v>
       </c>
       <c r="AJ34" t="n">
-        <v>3748.88237348868</v>
+        <v>520.053919372301</v>
       </c>
       <c r="AK34" t="n">
-        <v>303.2088693975141</v>
+        <v>678.8053212403776</v>
       </c>
       <c r="AL34" t="n">
-        <v>415.1149167786472</v>
+        <v>33.3077927839508</v>
       </c>
       <c r="AM34" t="n">
-        <v>17.56517002049761</v>
+        <v>479.824605530904</v>
       </c>
       <c r="AN34" t="n">
-        <v>294.2846942547227</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>51.91703157786404</v>
+        <v>93.32277606940067</v>
       </c>
     </row>
     <row r="35">
@@ -4809,85 +4705,82 @@
         <v>146.7460914169934</v>
       </c>
       <c r="O35" t="n">
-        <v>372.8801986208012</v>
+        <v>52978.76208439392</v>
       </c>
       <c r="P35" t="n">
-        <v>39489.42624923473</v>
+        <v>1765.962476807733</v>
       </c>
       <c r="Q35" t="n">
-        <v>1765.962476807733</v>
+        <v>8666.16291170086</v>
       </c>
       <c r="R35" t="n">
-        <v>6070.110146097415</v>
+        <v>3734.272722206049</v>
       </c>
       <c r="S35" t="n">
-        <v>2449.314670637962</v>
+        <v>332.4437256785976</v>
       </c>
       <c r="T35" t="n">
-        <v>216.888053005957</v>
+        <v>1412.959579758437</v>
       </c>
       <c r="U35" t="n">
-        <v>862.1930673904602</v>
+        <v>67.28895473599093</v>
       </c>
       <c r="V35" t="n">
-        <v>40.27745632234034</v>
+        <v>5147.239723318831</v>
       </c>
       <c r="W35" t="n">
-        <v>3311.507738028423</v>
+        <v>399.7271336439875</v>
       </c>
       <c r="X35" t="n">
-        <v>257.1655093282973</v>
+        <v>516.8208067878329</v>
       </c>
       <c r="Y35" t="n">
-        <v>375.1263113796813</v>
+        <v>23.14065426608165</v>
       </c>
       <c r="Z35" t="n">
-        <v>16.51389119891581</v>
+        <v>373.3546319105255</v>
       </c>
       <c r="AA35" t="n">
-        <v>277.6445431232362</v>
+        <v>59.16856211844646</v>
       </c>
       <c r="AB35" t="n">
-        <v>38.78424358778489</v>
+        <v>57317.38223617417</v>
       </c>
       <c r="AC35" t="n">
-        <v>39279.93044226572</v>
+        <v>1910.576528581808</v>
       </c>
       <c r="AD35" t="n">
-        <v>1910.576528581808</v>
+        <v>11793.57714756117</v>
       </c>
       <c r="AE35" t="n">
-        <v>7778.837036802246</v>
+        <v>4759.335734599299</v>
       </c>
       <c r="AF35" t="n">
-        <v>3017.692391399089</v>
+        <v>404.9040168930712</v>
       </c>
       <c r="AG35" t="n">
-        <v>263.1851499474467</v>
+        <v>1038.182895125695</v>
       </c>
       <c r="AH35" t="n">
-        <v>719.4799126229809</v>
+        <v>57.21367646183819</v>
       </c>
       <c r="AI35" t="n">
-        <v>38.51684732093342</v>
+        <v>5797.513137454936</v>
       </c>
       <c r="AJ35" t="n">
-        <v>3737.172304022069</v>
+        <v>462.1120866526988</v>
       </c>
       <c r="AK35" t="n">
-        <v>301.7019972683801</v>
+        <v>607.1785791387581</v>
       </c>
       <c r="AL35" t="n">
-        <v>419.1675538586645</v>
+        <v>31.07085872597543</v>
       </c>
       <c r="AM35" t="n">
-        <v>19.85071319986023</v>
+        <v>444.0293661862703</v>
       </c>
       <c r="AN35" t="n">
-        <v>310.2282462070162</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>48.57034184457258</v>
+        <v>77.38457167584689</v>
       </c>
     </row>
     <row r="36">
@@ -4934,85 +4827,82 @@
         <v>165.6381413830804</v>
       </c>
       <c r="O36" t="n">
-        <v>371.8247966512342</v>
+        <v>54289.47258068384</v>
       </c>
       <c r="P36" t="n">
-        <v>35494.73729419422</v>
+        <v>1809.646096568666</v>
       </c>
       <c r="Q36" t="n">
-        <v>1809.646096568666</v>
+        <v>9656.405871244675</v>
       </c>
       <c r="R36" t="n">
-        <v>5766.76606913491</v>
+        <v>4084.114102879566</v>
       </c>
       <c r="S36" t="n">
-        <v>2319.173608595876</v>
+        <v>362.496241124499</v>
       </c>
       <c r="T36" t="n">
-        <v>215.4429090488609</v>
+        <v>1274.177514298622</v>
       </c>
       <c r="U36" t="n">
-        <v>685.0367173314459</v>
+        <v>63.01790092576637</v>
       </c>
       <c r="V36" t="n">
-        <v>37.32197561427974</v>
+        <v>5358.300835154789</v>
       </c>
       <c r="W36" t="n">
-        <v>3004.210325927322</v>
+        <v>425.523432449689</v>
       </c>
       <c r="X36" t="n">
-        <v>252.7648846631407</v>
+        <v>553.6089037810474</v>
       </c>
       <c r="Y36" t="n">
-        <v>351.47706018204</v>
+        <v>34.84078202571931</v>
       </c>
       <c r="Z36" t="n">
-        <v>22.70821690657618</v>
+        <v>390.7384395706267</v>
       </c>
       <c r="AA36" t="n">
-        <v>257.4074198459067</v>
+        <v>61.38187113876177</v>
       </c>
       <c r="AB36" t="n">
-        <v>35.82405392328648</v>
+        <v>56321.49372905733</v>
       </c>
       <c r="AC36" t="n">
-        <v>39505.484242871</v>
+        <v>1877.379546286414</v>
       </c>
       <c r="AD36" t="n">
-        <v>1877.379546286414</v>
+        <v>11809.34570236807</v>
       </c>
       <c r="AE36" t="n">
-        <v>7859.112513605765</v>
+        <v>4539.085447751361</v>
       </c>
       <c r="AF36" t="n">
-        <v>3087.775219737954</v>
+        <v>401.2563456142798</v>
       </c>
       <c r="AG36" t="n">
-        <v>275.3123320989691</v>
+        <v>1043.953172414941</v>
       </c>
       <c r="AH36" t="n">
-        <v>733.7247838983114</v>
+        <v>58.86926605128379</v>
       </c>
       <c r="AI36" t="n">
-        <v>41.94934091784776</v>
+        <v>5583.040470429483</v>
       </c>
       <c r="AJ36" t="n">
-        <v>3821.500003636265</v>
+        <v>460.1218252461298</v>
       </c>
       <c r="AK36" t="n">
-        <v>317.2616730168169</v>
+        <v>618.5990349557175</v>
       </c>
       <c r="AL36" t="n">
-        <v>440.1419822157296</v>
+        <v>28.27308739687519</v>
       </c>
       <c r="AM36" t="n">
-        <v>21.08218983187122</v>
+        <v>455.6860211596264</v>
       </c>
       <c r="AN36" t="n">
-        <v>324.9350339450436</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>58.81064419060313</v>
+        <v>86.31550746319998</v>
       </c>
     </row>
     <row r="37">
@@ -5059,85 +4949,82 @@
         <v>154.2535591411627</v>
       </c>
       <c r="O37" t="n">
-        <v>362.7460513359584</v>
+        <v>49761.15394177375</v>
       </c>
       <c r="P37" t="n">
-        <v>36328.48181899288</v>
+        <v>1658.703278636297</v>
       </c>
       <c r="Q37" t="n">
-        <v>1658.703278636297</v>
+        <v>8188.129498446136</v>
       </c>
       <c r="R37" t="n">
-        <v>5732.374002032673</v>
+        <v>3667.369414173983</v>
       </c>
       <c r="S37" t="n">
-        <v>2363.1906298114</v>
+        <v>329.1959541275697</v>
       </c>
       <c r="T37" t="n">
-        <v>219.1584434655675</v>
+        <v>1394.249088735506</v>
       </c>
       <c r="U37" t="n">
-        <v>821.9325450206379</v>
+        <v>69.92296409453775</v>
       </c>
       <c r="V37" t="n">
-        <v>44.25744410405667</v>
+        <v>5061.627617948927</v>
       </c>
       <c r="W37" t="n">
-        <v>3185.123174832038</v>
+        <v>399.1263641674777</v>
       </c>
       <c r="X37" t="n">
-        <v>263.4158875696241</v>
+        <v>489.5014960543999</v>
       </c>
       <c r="Y37" t="n">
-        <v>347.0688676217898</v>
+        <v>24.81428760357238</v>
       </c>
       <c r="Z37" t="n">
-        <v>18.844725993479</v>
+        <v>329.8167602379572</v>
       </c>
       <c r="AA37" t="n">
-        <v>246.0604549536978</v>
+        <v>56.95220181687964</v>
       </c>
       <c r="AB37" t="n">
-        <v>36.27520049858263</v>
+        <v>56225.63095854168</v>
       </c>
       <c r="AC37" t="n">
-        <v>37915.2880239608</v>
+        <v>1874.185791167657</v>
       </c>
       <c r="AD37" t="n">
-        <v>1874.185791167657</v>
+        <v>11326.20569326952</v>
       </c>
       <c r="AE37" t="n">
-        <v>7324.273542042926</v>
+        <v>4376.465335938401</v>
       </c>
       <c r="AF37" t="n">
-        <v>2793.47461866496</v>
+        <v>395.6317404748003</v>
       </c>
       <c r="AG37" t="n">
-        <v>257.7624036194246</v>
+        <v>1028.486307784581</v>
       </c>
       <c r="AH37" t="n">
-        <v>682.4175658006961</v>
+        <v>59.07827005846161</v>
       </c>
       <c r="AI37" t="n">
-        <v>36.62479594682689</v>
+        <v>5404.951575240108</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3475.892184465657</v>
+        <v>454.7265611939874</v>
       </c>
       <c r="AK37" t="n">
-        <v>294.3871995662515</v>
+        <v>651.4699114092209</v>
       </c>
       <c r="AL37" t="n">
-        <v>439.4045870996823</v>
+        <v>42.7214447609071</v>
       </c>
       <c r="AM37" t="n">
-        <v>22.9154590859629</v>
+        <v>464.4250386672209</v>
       </c>
       <c r="AN37" t="n">
-        <v>322.2113046110748</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>53.04232438827471</v>
+        <v>83.38416563300532</v>
       </c>
     </row>
     <row r="38">
@@ -5184,85 +5071,82 @@
         <v>153.893094479036</v>
       </c>
       <c r="O38" t="n">
-        <v>389.0866132824096</v>
+        <v>56669.39492222822</v>
       </c>
       <c r="P38" t="n">
-        <v>36081.57315584576</v>
+        <v>1888.98553093654</v>
       </c>
       <c r="Q38" t="n">
-        <v>1888.98553093654</v>
+        <v>9765.430694444754</v>
       </c>
       <c r="R38" t="n">
-        <v>5829.861877772895</v>
+        <v>4206.695624390235</v>
       </c>
       <c r="S38" t="n">
-        <v>2328.247391049089</v>
+        <v>384.3638659819452</v>
       </c>
       <c r="T38" t="n">
-        <v>216.8478708318315</v>
+        <v>1823.963286610383</v>
       </c>
       <c r="U38" t="n">
-        <v>952.3947060857361</v>
+        <v>81.77301435050084</v>
       </c>
       <c r="V38" t="n">
-        <v>45.82722075972508</v>
+        <v>6030.660827958023</v>
       </c>
       <c r="W38" t="n">
-        <v>3280.642097134826</v>
+        <v>466.1498453859055</v>
       </c>
       <c r="X38" t="n">
-        <v>262.6750915915566</v>
+        <v>578.9350879346937</v>
       </c>
       <c r="Y38" t="n">
-        <v>353.1495814888766</v>
+        <v>36.76670958865613</v>
       </c>
       <c r="Z38" t="n">
-        <v>21.455599678043</v>
+        <v>382.6740442784197</v>
       </c>
       <c r="AA38" t="n">
-        <v>245.6218126060849</v>
+        <v>67.5064783727853</v>
       </c>
       <c r="AB38" t="n">
-        <v>39.53773846548374</v>
+        <v>59503.30874041912</v>
       </c>
       <c r="AC38" t="n">
-        <v>34422.20388902534</v>
+        <v>1983.448062872379</v>
       </c>
       <c r="AD38" t="n">
-        <v>1983.448062872379</v>
+        <v>12007.53912569019</v>
       </c>
       <c r="AE38" t="n">
-        <v>6797.384713061297</v>
+        <v>4819.59747823416</v>
       </c>
       <c r="AF38" t="n">
-        <v>2721.064241914815</v>
+        <v>456.0144674119141</v>
       </c>
       <c r="AG38" t="n">
-        <v>257.3491784716762</v>
+        <v>1605.405273848661</v>
       </c>
       <c r="AH38" t="n">
-        <v>796.5154965980489</v>
+        <v>76.43229454320814</v>
       </c>
       <c r="AI38" t="n">
-        <v>39.39462331833654</v>
+        <v>6425.008453050798</v>
       </c>
       <c r="AJ38" t="n">
-        <v>3517.579738512864</v>
+        <v>532.4431642055348</v>
       </c>
       <c r="AK38" t="n">
-        <v>296.7438017900128</v>
+        <v>692.9063924782147</v>
       </c>
       <c r="AL38" t="n">
-        <v>396.6327458838781</v>
+        <v>38.30035580475194</v>
       </c>
       <c r="AM38" t="n">
-        <v>21.07230352484551</v>
+        <v>470.8938321200097</v>
       </c>
       <c r="AN38" t="n">
-        <v>279.4835443691948</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>48.55273602476726</v>
+        <v>91.40133064033448</v>
       </c>
     </row>
     <row r="39">
@@ -5309,85 +5193,82 @@
         <v>155.8204165434107</v>
       </c>
       <c r="O39" t="n">
-        <v>387.5856189916307</v>
+        <v>55189.90646558028</v>
       </c>
       <c r="P39" t="n">
-        <v>40073.71908643807</v>
+        <v>1839.662466326905</v>
       </c>
       <c r="Q39" t="n">
-        <v>1839.662466326905</v>
+        <v>8882.085494708459</v>
       </c>
       <c r="R39" t="n">
-        <v>6122.426874726911</v>
+        <v>3877.636153350315</v>
       </c>
       <c r="S39" t="n">
-        <v>2487.730923877652</v>
+        <v>352.317288588636</v>
       </c>
       <c r="T39" t="n">
-        <v>238.8473108457178</v>
+        <v>1199.181085479712</v>
       </c>
       <c r="U39" t="n">
-        <v>822.3148665894826</v>
+        <v>65.64270468988005</v>
       </c>
       <c r="V39" t="n">
-        <v>45.19883802075905</v>
+        <v>5076.814924990226</v>
       </c>
       <c r="W39" t="n">
-        <v>3310.045790467135</v>
+        <v>417.9580227212312</v>
       </c>
       <c r="X39" t="n">
-        <v>284.0461488664769</v>
+        <v>567.9854481539271</v>
       </c>
       <c r="Y39" t="n">
-        <v>403.2172350535426</v>
+        <v>37.89963224493989</v>
       </c>
       <c r="Z39" t="n">
-        <v>24.95832137788141</v>
+        <v>400.0818378983465</v>
       </c>
       <c r="AA39" t="n">
-        <v>292.3355556183159</v>
+        <v>66.2139246629886</v>
       </c>
       <c r="AB39" t="n">
-        <v>44.14674929039214</v>
+        <v>57008.61883351905</v>
       </c>
       <c r="AC39" t="n">
-        <v>36320.47499639842</v>
+        <v>1900.283101147303</v>
       </c>
       <c r="AD39" t="n">
-        <v>1900.283101147303</v>
+        <v>10974.02275998646</v>
       </c>
       <c r="AE39" t="n">
-        <v>6638.209130462985</v>
+        <v>4528.610925977065</v>
       </c>
       <c r="AF39" t="n">
-        <v>2747.246523009062</v>
+        <v>418.0473731715866</v>
       </c>
       <c r="AG39" t="n">
-        <v>249.5681733274294</v>
+        <v>1325.112605040189</v>
       </c>
       <c r="AH39" t="n">
-        <v>763.2025698631277</v>
+        <v>61.63541757014788</v>
       </c>
       <c r="AI39" t="n">
-        <v>37.17532114021604</v>
+        <v>5853.717443276874</v>
       </c>
       <c r="AJ39" t="n">
-        <v>3510.44909287219</v>
+        <v>479.6748386827861</v>
       </c>
       <c r="AK39" t="n">
-        <v>286.7434944676455</v>
+        <v>639.3104019025781</v>
       </c>
       <c r="AL39" t="n">
-        <v>412.1547314804446</v>
+        <v>29.84761145709226</v>
       </c>
       <c r="AM39" t="n">
-        <v>18.0106627233353</v>
+        <v>482.6298864933575</v>
       </c>
       <c r="AN39" t="n">
-        <v>312.2770497799796</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>50.43172665666541</v>
+        <v>88.46129486085665</v>
       </c>
     </row>
   </sheetData>
